--- a/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/append_pcc_dmrc_bs.xlsx
+++ b/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/append_pcc_dmrc_bs.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PCC_subnetwork_separate_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0ADEF9-65E1-4667-A69C-DAE5DF5B809F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1D0F95-EF3C-4222-A59B-BD076D1D882B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="11" r:id="rId1"/>
-    <sheet name="Residual_Exp_BS" sheetId="12" r:id="rId2"/>
-    <sheet name="Residual_Gaus_BS" sheetId="14" r:id="rId3"/>
-    <sheet name="Residual_PL_BS" sheetId="15" r:id="rId4"/>
-    <sheet name="Residual_RQ_BS" sheetId="16" r:id="rId5"/>
+    <sheet name="Exp_bs" sheetId="17" r:id="rId2"/>
+    <sheet name="Gauss_bs" sheetId="18" r:id="rId3"/>
+    <sheet name="Inverse_bs" sheetId="19" r:id="rId4"/>
+    <sheet name="PL_bs" sheetId="20" r:id="rId5"/>
+    <sheet name="RQ_bs" sheetId="21" r:id="rId6"/>
+    <sheet name="GG_bs" sheetId="22" r:id="rId7"/>
+    <sheet name="Sig_bs" sheetId="23" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="34">
   <si>
     <t>Generalized Surface Laplacian</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +141,10 @@
   </si>
   <si>
     <t>Baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113F3A2F-6837-41B1-B2B8-CB791D6423A8}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1462,6 +1469,39 @@
         <v xml:space="preserve">    95.693215339233, 94.5722713864307, 95.7522123893805, 97.0501474926254, 97.3182293964481, 90.8263912317581, 69.2454086973071,</v>
       </c>
     </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C2:C31)</f>
+        <v>93.101364775358491</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <v>91.326663725464769</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>89.722561037148537</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>83.857204647099024</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>76.242949045118621</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>60.402777417336374</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>47.740900296138648</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1469,10 +1509,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2174D7DB-62E5-4D30-AD2F-E09572D10E7A}">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F48D65-54D9-418A-804E-52605BF63D6D}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -2403,6 +2445,39 @@
       <c r="L31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    94.9852507374631, 97.1386430678466, 97.3453057552401, 99.1445427728614, 98.8524987240374, 92.702012993192, 75.5792870180538,</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C2:C31)</f>
+        <v>93.187876481053777</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <v>92.419943079092391</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>91.030305913834326</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>87.638062036292112</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>81.386496999685704</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>61.648901230402799</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>50.1996153369262</v>
       </c>
     </row>
   </sheetData>
@@ -2412,10 +2487,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1006BFEB-410B-4530-8AD6-FDC255E0C64C}">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7966138E-59CE-40BE-B64B-77ED25B4524B}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -3346,6 +3423,39 @@
       <c r="L31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    95.4867256637168, 97.7581120943953, 99.0855457227139, 98.6135693215339, 99.0265486725664, 86.5772195261205, 72.3104871149404,</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C2:C31)</f>
+        <v>93.308803132668388</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <v>92.32654838421324</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>90.9441315812997</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>88.444112838346342</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>81.14231668670719</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>62.606790139476402</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>47.764790352857723</v>
       </c>
     </row>
   </sheetData>
@@ -3355,10 +3465,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1D713A-2DD1-4851-A8A9-37A69A9E2053}">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99164D4E-3C3B-4A59-BDCE-32789F000227}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -3396,29 +3508,29 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>89.73451327433628</v>
+        <v>86.460176991150448</v>
       </c>
       <c r="D2">
-        <v>89.203712834886119</v>
+        <v>88.289085545722713</v>
       </c>
       <c r="E2">
-        <v>85.162241887905608</v>
+        <v>85.044939835119678</v>
       </c>
       <c r="F2">
-        <v>84.601942923381699</v>
+        <v>88.230088495575231</v>
       </c>
       <c r="G2">
-        <v>82.921219041687209</v>
+        <v>82.132544399173</v>
       </c>
       <c r="H2">
-        <v>60.122751926919783</v>
+        <v>60.690490402166112</v>
       </c>
       <c r="I2">
-        <v>45.782575973840601</v>
+        <v>46.549710637635272</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L31" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
-        <v xml:space="preserve">    89.7345132743363, 89.2037128348861, 85.1622418879056, 84.6019429233817, 82.9212190416872, 60.1227519269198, 45.7825759738406,</v>
+        <v xml:space="preserve">    86.4601769911504, 88.2890855457227, 85.0449398351197, 88.2300884955752, 82.132544399173, 60.6904904021661, 46.5497106376353,</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3426,29 +3538,29 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>93.598820058997063</v>
+        <v>94.778761061946895</v>
       </c>
       <c r="D3">
-        <v>93.598820058997063</v>
+        <v>93.982300884955748</v>
       </c>
       <c r="E3">
-        <v>93.185840707964601</v>
+        <v>94.277459147570482</v>
       </c>
       <c r="F3">
-        <v>92.271732454433007</v>
+        <v>93.303834808259595</v>
       </c>
       <c r="G3">
-        <v>84.98732687999032</v>
+        <v>88.586146938987355</v>
       </c>
       <c r="H3">
-        <v>54.964056782498119</v>
+        <v>54.335764150208909</v>
       </c>
       <c r="I3">
-        <v>50.828380868346613</v>
+        <v>47.127137778008461</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    93.5988200589971, 93.5988200589971, 93.1858407079646, 92.271732454433, 84.9873268799903, 54.9640567824981, 50.8283808683466,</v>
+        <v xml:space="preserve">    94.7787610619469, 93.9823008849557, 94.2774591475705, 93.3038348082596, 88.5861469389874, 54.3357641502089, 47.1271377780085,</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3456,29 +3568,29 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>88.849557522123888</v>
+        <v>88.879056047197636</v>
       </c>
       <c r="D4">
-        <v>89.174041297935105</v>
+        <v>88.643067846607664</v>
       </c>
       <c r="E4">
-        <v>88.702064896755161</v>
+        <v>87.787610619469021</v>
       </c>
       <c r="F4">
-        <v>87.020648967551622</v>
+        <v>86.755162241887916</v>
       </c>
       <c r="G4">
-        <v>82.30088495575221</v>
+        <v>81.327433628318573</v>
       </c>
       <c r="H4">
-        <v>58.222129949221006</v>
+        <v>54.280227337606718</v>
       </c>
       <c r="I4">
-        <v>42.200711078815559</v>
+        <v>38.807688647825671</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    88.8495575221239, 89.1740412979351, 88.7020648967552, 87.0206489675516, 82.3008849557522, 58.222129949221, 42.2007110788156,</v>
+        <v xml:space="preserve">    88.8790560471976, 88.6430678466077, 87.787610619469, 86.7551622418879, 81.3274336283186, 54.2802273376067, 38.8076886478257,</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3486,29 +3598,29 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>92.684365781710909</v>
+        <v>92.330383480825958</v>
       </c>
       <c r="D5">
-        <v>91.858580091523294</v>
+        <v>92.920353982300895</v>
       </c>
       <c r="E5">
-        <v>92.153392330383483</v>
+        <v>91.592920353982294</v>
       </c>
       <c r="F5">
-        <v>90.029498525073748</v>
+        <v>89.144542772861357</v>
       </c>
       <c r="G5">
-        <v>71.14680922845352</v>
+        <v>82.516717272640761</v>
       </c>
       <c r="H5">
-        <v>57.493317416240629</v>
+        <v>56.048062699504307</v>
       </c>
       <c r="I5">
-        <v>41.869825863545529</v>
+        <v>39.440739106739677</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    92.6843657817109, 91.8585800915233, 92.1533923303835, 90.0294985250737, 71.1468092284535, 57.4933174162406, 41.8698258635455,</v>
+        <v xml:space="preserve">    92.330383480826, 92.9203539823009, 91.5929203539823, 89.1445427728614, 82.5167172726408, 56.0480626995043, 39.4407391067397,</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3516,29 +3628,29 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>95.811209439528028</v>
+        <v>96.194690265486727</v>
       </c>
       <c r="D6">
-        <v>95.073746312684364</v>
+        <v>95.044247787610615</v>
       </c>
       <c r="E6">
-        <v>94.690265486725664</v>
+        <v>95.60471976401179</v>
       </c>
       <c r="F6">
-        <v>92.714383342416454</v>
+        <v>93.097345132743357</v>
       </c>
       <c r="G6">
-        <v>77.24253670014447</v>
+        <v>72.578222995008602</v>
       </c>
       <c r="H6">
-        <v>48.320660213323649</v>
+        <v>46.465886383100198</v>
       </c>
       <c r="I6">
-        <v>37.898943762489303</v>
+        <v>38.91512902360747</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    95.811209439528, 95.0737463126844, 94.6902654867257, 92.7143833424165, 77.2425367001445, 48.3206602133236, 37.8989437624893,</v>
+        <v xml:space="preserve">    96.1946902654867, 95.0442477876106, 95.6047197640118, 93.0973451327434, 72.5782229950086, 46.4658863831002, 38.9151290236075,</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3546,29 +3658,29 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>92.83185840707965</v>
+        <v>94.395280235988196</v>
       </c>
       <c r="D7">
-        <v>93.038348082595874</v>
+        <v>90.088495575221231</v>
       </c>
       <c r="E7">
-        <v>91.238938053097357</v>
+        <v>94.306784660766965</v>
       </c>
       <c r="F7">
-        <v>84.132994230053896</v>
+        <v>91.356932153392336</v>
       </c>
       <c r="G7">
-        <v>74.742082543966632</v>
+        <v>78.777152051488343</v>
       </c>
       <c r="H7">
-        <v>39.13494061367313</v>
+        <v>37.024022699158287</v>
       </c>
       <c r="I7">
-        <v>37.558715905846938</v>
+        <v>33.677367451275529</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    92.8318584070797, 93.0383480825959, 91.2389380530974, 84.1329942300539, 74.7420825439666, 39.1349406136731, 37.5587159058469,</v>
+        <v xml:space="preserve">    94.3952802359882, 90.0884955752212, 94.306784660767, 91.3569321533923, 78.7771520514883, 37.0240226991583, 33.6773674512755,</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3576,29 +3688,29 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>91.858407079646014</v>
+        <v>92.802359882005902</v>
       </c>
       <c r="D8">
-        <v>92.979351032448378</v>
+        <v>93.185840707964601</v>
       </c>
       <c r="E8">
-        <v>91.769911504424783</v>
+        <v>92.890855457227147</v>
       </c>
       <c r="F8">
-        <v>88.525073746312685</v>
+        <v>90.914454277286126</v>
       </c>
       <c r="G8">
-        <v>84.757048071350098</v>
+        <v>83.964048131904264</v>
       </c>
       <c r="H8">
-        <v>68.918502755214149</v>
+        <v>66.432668102665247</v>
       </c>
       <c r="I8">
-        <v>55.01855552383671</v>
+        <v>60.689106307147981</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    91.858407079646, 92.9793510324484, 91.7699115044248, 88.5250737463127, 84.7570480713501, 68.9185027552141, 55.0185555238367,</v>
+        <v xml:space="preserve">    92.8023598820059, 93.1858407079646, 92.8908554572271, 90.9144542772861, 83.9640481319043, 66.4326681026652, 60.689106307148,</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3606,29 +3718,29 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>97.610619469026545</v>
+        <v>96.991150442477874</v>
       </c>
       <c r="D9">
-        <v>94.86725663716814</v>
+        <v>96.725663716814168</v>
       </c>
       <c r="E9">
-        <v>95.722713864306783</v>
+        <v>96.755162241887916</v>
       </c>
       <c r="F9">
-        <v>96.283185840707958</v>
+        <v>96.903173902888426</v>
       </c>
       <c r="G9">
-        <v>87.061047240893089</v>
+        <v>91.245685516310701</v>
       </c>
       <c r="H9">
-        <v>68.695057915725911</v>
+        <v>54.499260374224697</v>
       </c>
       <c r="I9">
-        <v>52.446820474225561</v>
+        <v>54.003494839920762</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    97.6106194690265, 94.8672566371681, 95.7227138643068, 96.283185840708, 87.0610472408931, 68.6950579157259, 52.4468204742256,</v>
+        <v xml:space="preserve">    96.9911504424779, 96.7256637168142, 96.7551622418879, 96.9031739028884, 91.2456855163107, 54.4992603742247, 54.0034948399208,</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3636,29 +3748,29 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>98.43657817109144</v>
+        <v>98.259587020648979</v>
       </c>
       <c r="D10">
-        <v>97.905604719764014</v>
+        <v>98.407079646017706</v>
       </c>
       <c r="E10">
-        <v>97.492625368731566</v>
+        <v>98.525073746312685</v>
       </c>
       <c r="F10">
-        <v>96.135866227216496</v>
+        <v>96.135693215339231</v>
       </c>
       <c r="G10">
-        <v>94.690784522357461</v>
+        <v>93.952975371759265</v>
       </c>
       <c r="H10">
-        <v>72.733760672670172</v>
+        <v>68.223427538300513</v>
       </c>
       <c r="I10">
-        <v>61.427261481500707</v>
+        <v>56.564330141264193</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    98.4365781710914, 97.905604719764, 97.4926253687316, 96.1358662272165, 94.6907845223575, 72.7337606726702, 61.4272614815007,</v>
+        <v xml:space="preserve">    98.259587020649, 98.4070796460177, 98.5250737463127, 96.1356932153392, 93.9529753717593, 68.2234275383005, 56.5643301412642,</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3666,29 +3778,29 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>94.336283185840699</v>
+        <v>95.309734513274336</v>
       </c>
       <c r="D11">
-        <v>96.607669616519175</v>
+        <v>94.188790560471972</v>
       </c>
       <c r="E11">
-        <v>95.044247787610615</v>
+        <v>94.454277286135692</v>
       </c>
       <c r="F11">
-        <v>93.59916608275158</v>
+        <v>92.389380530973455</v>
       </c>
       <c r="G11">
-        <v>82.122250192475718</v>
+        <v>79.873614823657647</v>
       </c>
       <c r="H11">
-        <v>63.14682652964126</v>
+        <v>58.490557876798242</v>
       </c>
       <c r="I11">
-        <v>53.511016531284866</v>
+        <v>42.084966132925032</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    94.3362831858407, 96.6076696165192, 95.0442477876106, 93.5991660827516, 82.1222501924757, 63.1468265296413, 53.5110165312849,</v>
+        <v xml:space="preserve">    95.3097345132743, 94.188790560472, 94.4542772861357, 92.3893805309735, 79.8736148236576, 58.4905578767982, 42.084966132925,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3696,29 +3808,29 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>91.740759003105566</v>
+        <v>90.619469026548671</v>
       </c>
       <c r="D12">
-        <v>90.737809150598181</v>
+        <v>90.442477876106196</v>
       </c>
       <c r="E12">
-        <v>89.764357823164559</v>
+        <v>90.206489675516224</v>
       </c>
       <c r="F12">
-        <v>89.174041297935105</v>
+        <v>88.672566371681413</v>
       </c>
       <c r="G12">
-        <v>82.991288851979689</v>
+        <v>81.12146298843416</v>
       </c>
       <c r="H12">
-        <v>51.206498326110093</v>
+        <v>53.090597669530013</v>
       </c>
       <c r="I12">
-        <v>45.169335374873476</v>
+        <v>48.70171887300063</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    91.7407590031056, 90.7378091505982, 89.7643578231646, 89.1740412979351, 82.9912888519797, 51.2064983261101, 45.1693353748735,</v>
+        <v xml:space="preserve">    90.6194690265487, 90.4424778761062, 90.2064896755162, 88.6725663716814, 81.1214629884342, 53.09059766953, 48.7017188730006,</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3726,29 +3838,29 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>95.486725663716811</v>
+        <v>95.280235988200587</v>
       </c>
       <c r="D13">
-        <v>94.95592522426665</v>
+        <v>95.60471976401179</v>
       </c>
       <c r="E13">
-        <v>93.893805309734518</v>
+        <v>93.451500445505587</v>
       </c>
       <c r="F13">
-        <v>93.333333333333343</v>
+        <v>92.389380530973455</v>
       </c>
       <c r="G13">
-        <v>87.94548395747367</v>
+        <v>87.728959593076056</v>
       </c>
       <c r="H13">
-        <v>55.343731347156982</v>
+        <v>62.121990674659813</v>
       </c>
       <c r="I13">
-        <v>46.058270400262977</v>
+        <v>43.638180261074922</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    95.4867256637168, 94.9559252242667, 93.8938053097345, 93.3333333333333, 87.9454839574737, 55.343731347157, 46.058270400263,</v>
+        <v xml:space="preserve">    95.2802359882006, 95.6047197640118, 93.4515004455056, 92.3893805309735, 87.7289595930761, 62.1219906746598, 43.6381802610749,</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3756,29 +3868,29 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>93.038348082595874</v>
+        <v>92.979351032448378</v>
       </c>
       <c r="D14">
-        <v>92.890855457227147</v>
+        <v>91.799410029498532</v>
       </c>
       <c r="E14">
-        <v>92.861356932153384</v>
+        <v>91.356932153392336</v>
       </c>
       <c r="F14">
         <v>90.619469026548671</v>
       </c>
       <c r="G14">
-        <v>83.543629270149395</v>
+        <v>82.745438974385593</v>
       </c>
       <c r="H14">
-        <v>52.131765845725297</v>
+        <v>62.470523101410912</v>
       </c>
       <c r="I14">
-        <v>46.120641182017152</v>
+        <v>53.644668206472367</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    93.0383480825959, 92.8908554572271, 92.8613569321534, 90.6194690265487, 83.5436292701494, 52.1317658457253, 46.1206411820172,</v>
+        <v xml:space="preserve">    92.9793510324484, 91.7994100294985, 91.3569321533923, 90.6194690265487, 82.7454389743856, 62.4705231014109, 53.6446682064724,</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3786,29 +3898,29 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>92.832031418956916</v>
+        <v>92.183063867334496</v>
       </c>
       <c r="D15">
-        <v>90.265659737540972</v>
+        <v>91.622591890933307</v>
       </c>
       <c r="E15">
-        <v>90.531146463204692</v>
+        <v>93.215512244915615</v>
       </c>
       <c r="F15">
-        <v>87.967888995579557</v>
+        <v>91.535999446361998</v>
       </c>
       <c r="G15">
-        <v>80.565835344596408</v>
+        <v>80.454242683760242</v>
       </c>
       <c r="H15">
-        <v>48.580091523283073</v>
+        <v>53.996920388584677</v>
       </c>
       <c r="I15">
-        <v>41.428040034948403</v>
+        <v>40.070934869678801</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    92.8320314189569, 90.265659737541, 90.5311464632047, 87.9678889955796, 80.5658353445964, 48.5800915232831, 41.4280400349484,</v>
+        <v xml:space="preserve">    92.1830638673345, 91.6225918909333, 93.2155122449156, 91.535999446362, 80.4542426837602, 53.9969203885847, 40.0709348696788,</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3816,29 +3928,29 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>93.893978321611783</v>
+        <v>93.716814159292042</v>
       </c>
       <c r="D16">
-        <v>91.740412979351021</v>
+        <v>92.655213280391692</v>
       </c>
       <c r="E16">
-        <v>92.448377581120937</v>
+        <v>93.067846607669622</v>
       </c>
       <c r="F16">
-        <v>85.402555385427206</v>
+        <v>87.965466829297824</v>
       </c>
       <c r="G16">
-        <v>76.779210892827791</v>
+        <v>76.6662341369735</v>
       </c>
       <c r="H16">
-        <v>62.346214067595753</v>
+        <v>44.359899307087431</v>
       </c>
       <c r="I16">
-        <v>35.89217899808822</v>
+        <v>41.600186852827449</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    93.8939783216118, 91.740412979351, 92.4483775811209, 85.4025553854272, 76.7792108928278, 62.3462140675958, 35.8921789980882,</v>
+        <v xml:space="preserve">    93.716814159292, 92.6552132803917, 93.0678466076696, 87.9654668292978, 76.6662341369735, 44.3598993070874, 41.6001868528274,</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -3846,29 +3958,29 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>94.719764011799413</v>
+        <v>95.191740412979357</v>
       </c>
       <c r="D17">
-        <v>95.929203539823007</v>
+        <v>95.60471976401179</v>
       </c>
       <c r="E17">
-        <v>96.047197640118</v>
+        <v>96.283185840707958</v>
       </c>
       <c r="F17">
-        <v>96.076696165191748</v>
+        <v>96.017699115044252</v>
       </c>
       <c r="G17">
-        <v>90.471976401179944</v>
+        <v>89.208557167449541</v>
       </c>
       <c r="H17">
-        <v>61.86229984688449</v>
+        <v>59.968857862092229</v>
       </c>
       <c r="I17">
-        <v>41.892403913528668</v>
+        <v>41.147155252208073</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    94.7197640117994, 95.929203539823, 96.047197640118, 96.0766961651917, 90.4719764011799, 61.8622998468845, 41.8924039135287,</v>
+        <v xml:space="preserve">    95.1917404129794, 95.6047197640118, 96.283185840708, 96.0176991150443, 89.2085571674495, 59.9688578620922, 41.1471552522081,</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -3876,29 +3988,29 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>93.363004870284357</v>
+        <v>92.979351032448378</v>
       </c>
       <c r="D18">
-        <v>92.714037318661923</v>
+        <v>93.127708717203433</v>
       </c>
       <c r="E18">
-        <v>92.419571103556251</v>
+        <v>92.38955354285072</v>
       </c>
       <c r="F18">
-        <v>90.562548118928362</v>
+        <v>91.888943675983356</v>
       </c>
       <c r="G18">
-        <v>84.586977395998233</v>
+        <v>77.378610541613682</v>
       </c>
       <c r="H18">
-        <v>66.478429744201932</v>
+        <v>59.920587548335199</v>
       </c>
       <c r="I18">
-        <v>52.861529944030657</v>
+        <v>46.618396352909627</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    93.3630048702844, 92.7140373186619, 92.4195711035563, 90.5625481189284, 84.5869773959982, 66.4784297442019, 52.8615299440307,</v>
+        <v xml:space="preserve">    92.9793510324484, 93.1277087172034, 92.3895535428507, 91.8889436759834, 77.3786105416137, 59.9205875483352, 46.6183963529096,</v>
       </c>
     </row>
     <row r="19" spans="2:12">
@@ -3906,29 +4018,29 @@
         <v>18</v>
       </c>
       <c r="C19">
+        <v>96.902654867256643</v>
+      </c>
+      <c r="D19">
+        <v>96.961651917404126</v>
+      </c>
+      <c r="E19">
         <v>96.283185840707958</v>
       </c>
-      <c r="D19">
-        <v>97.050147492625371</v>
-      </c>
-      <c r="E19">
-        <v>97.168141592920364</v>
-      </c>
       <c r="F19">
-        <v>94.542772861356937</v>
+        <v>95.78171091445428</v>
       </c>
       <c r="G19">
-        <v>91.652090416007056</v>
+        <v>89.616519174041301</v>
       </c>
       <c r="H19">
-        <v>76.034654279016252</v>
+        <v>65.02123720793432</v>
       </c>
       <c r="I19">
-        <v>53.115424873917597</v>
+        <v>54.412667929653367</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    96.283185840708, 97.0501474926254, 97.1681415929204, 94.5427728613569, 91.6520904160071, 76.0346542790163, 53.1154248739176,</v>
+        <v xml:space="preserve">    96.9026548672566, 96.9616519174041, 96.283185840708, 95.7817109144543, 89.6165191740413, 65.0212372079343, 54.4126679296534,</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -3936,29 +4048,29 @@
         <v>19</v>
       </c>
       <c r="C20">
+        <v>94.572271386430685</v>
+      </c>
+      <c r="D20">
         <v>94.011799410029496</v>
       </c>
-      <c r="D20">
-        <v>91.710914454277287</v>
-      </c>
       <c r="E20">
-        <v>92.477876106194685</v>
+        <v>91.563940864540342</v>
       </c>
       <c r="F20">
-        <v>91.567055078331123</v>
+        <v>91.888424640351559</v>
       </c>
       <c r="G20">
-        <v>83.558162267839677</v>
+        <v>86.452650974489387</v>
       </c>
       <c r="H20">
-        <v>60.715663630308221</v>
+        <v>62.101748285019767</v>
       </c>
       <c r="I20">
-        <v>46.284223911971559</v>
+        <v>41.679339786676351</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    94.0117994100295, 91.7109144542773, 92.4778761061947, 91.5670550783311, 83.5581622678397, 60.7156636303082, 46.2842239119716,</v>
+        <v xml:space="preserve">    94.5722713864307, 94.0117994100295, 91.5639408645403, 91.8884246403516, 86.4526509744894, 62.1017482850198, 41.6793397866764,</v>
       </c>
     </row>
     <row r="21" spans="2:12">
@@ -3966,29 +4078,29 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>90.38382684971323</v>
+        <v>88.613569321533916</v>
       </c>
       <c r="D21">
-        <v>91.20961253990086</v>
+        <v>88.318757082673727</v>
       </c>
       <c r="E21">
-        <v>88.998780266265271</v>
+        <v>89.380530973451329</v>
       </c>
       <c r="F21">
-        <v>87.315980242043608</v>
+        <v>86.229379146878429</v>
       </c>
       <c r="G21">
-        <v>72.644746061817145</v>
+        <v>80.362805906625482</v>
       </c>
       <c r="H21">
-        <v>60.194205832230388</v>
+        <v>62.941028901634112</v>
       </c>
       <c r="I21">
-        <v>39.674132129170673</v>
+        <v>43.776849280703118</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    90.3838268497132, 91.2096125399009, 88.9987802662653, 87.3159802420436, 72.6447460618171, 60.1942058322304, 39.6741321291707,</v>
+        <v xml:space="preserve">    88.6135693215339, 88.3187570826737, 89.3805309734513, 86.2293791468784, 80.3628059066255, 62.9410289016341, 43.7768492807031,</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -3996,29 +4108,29 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>93.303834808259595</v>
+        <v>93.539823008849552</v>
       </c>
       <c r="D22">
-        <v>93.333333333333343</v>
+        <v>93.687315634218294</v>
       </c>
       <c r="E22">
-        <v>93.661104334812578</v>
+        <v>94.336283185840699</v>
       </c>
       <c r="F22">
-        <v>93.187397814859992</v>
+        <v>94.161195166048145</v>
       </c>
       <c r="G22">
-        <v>89.739011583145185</v>
+        <v>90.241178556907926</v>
       </c>
       <c r="H22">
-        <v>71.326828086748151</v>
+        <v>65.192864990181576</v>
       </c>
       <c r="I22">
-        <v>56.628690559606909</v>
+        <v>49.339786676355331</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    93.3038348082596, 93.3333333333333, 93.6611043348126, 93.18739781486, 89.7390115831452, 71.3268280867482, 56.6286905596069,</v>
+        <v xml:space="preserve">    93.5398230088496, 93.6873156342183, 94.3362831858407, 94.1611951660481, 90.2411785569079, 65.1928649901816, 49.3397866763553,</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -4026,29 +4138,29 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>91.061946902654867</v>
+        <v>92.684365781710909</v>
       </c>
       <c r="D23">
-        <v>92.713864306784657</v>
+        <v>93.451327433628322</v>
       </c>
       <c r="E23">
-        <v>90.058997050147497</v>
+        <v>90.530973451327441</v>
       </c>
       <c r="F23">
-        <v>89.469026548672559</v>
+        <v>89.528023598820056</v>
       </c>
       <c r="G23">
-        <v>74.747964947793662</v>
+        <v>78.474727290028468</v>
       </c>
       <c r="H23">
-        <v>51.118867810275177</v>
+        <v>37.649114611718097</v>
       </c>
       <c r="I23">
-        <v>37.917542539295333</v>
+        <v>32.437045303160062</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    91.0619469026549, 92.7138643067847, 90.0589970501475, 89.4690265486726, 74.7479649477937, 51.1188678102752, 37.9175425392953,</v>
+        <v xml:space="preserve">    92.6843657817109, 93.4513274336283, 90.5309734513274, 89.5280235988201, 78.4747272900285, 37.6491146117181, 32.4370453031601,</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -4056,29 +4168,29 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>93.451327433628322</v>
+        <v>94.454277286135692</v>
       </c>
       <c r="D24">
-        <v>93.8646528084153</v>
+        <v>93.923649858562797</v>
       </c>
       <c r="E24">
-        <v>92.359882005899706</v>
+        <v>92.890855457227147</v>
       </c>
       <c r="F24">
-        <v>93.008849557522126</v>
+        <v>93.244837758112084</v>
       </c>
       <c r="G24">
-        <v>79.617816763120786</v>
+        <v>83.923303834808252</v>
       </c>
       <c r="H24">
-        <v>58.836235607574473</v>
+        <v>47.430687116670562</v>
       </c>
       <c r="I24">
-        <v>44.608344362840512</v>
+        <v>37.40810906668743</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    93.4513274336283, 93.8646528084153, 92.3598820058997, 93.0088495575221, 79.6178167631208, 58.8362356075745, 44.6083443628405,</v>
+        <v xml:space="preserve">    94.4542772861357, 93.9236498585628, 92.8908554572271, 93.2448377581121, 83.9233038348083, 47.4306871166706, 37.4081090666874,</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -4086,29 +4198,29 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>93.893805309734518</v>
+        <v>95.014749262536867</v>
       </c>
       <c r="D25">
-        <v>93.362831858407077</v>
+        <v>93.421828908554573</v>
       </c>
       <c r="E25">
-        <v>92.212389380530979</v>
+        <v>91.622418879056042</v>
       </c>
       <c r="F25">
-        <v>90.26548672566372</v>
+        <v>90.029498525073748</v>
       </c>
       <c r="G25">
-        <v>83.097691156497888</v>
+        <v>82.629694028495052</v>
       </c>
       <c r="H25">
-        <v>54.326421508836589</v>
+        <v>51.931158574036111</v>
       </c>
       <c r="I25">
-        <v>36.101782887395217</v>
+        <v>37.976885613197346</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    93.8938053097345, 93.3628318584071, 92.212389380531, 90.2654867256637, 83.0976911564979, 54.3264215088366, 36.1017828873952,</v>
+        <v xml:space="preserve">    95.0147492625369, 93.4218289085546, 91.622418879056, 90.0294985250737, 82.6296940284951, 51.9311585740361, 37.9768856131973,</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -4116,29 +4228,29 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>88.879056047197636</v>
+        <v>89.115044247787608</v>
       </c>
       <c r="D26">
-        <v>90.501474926253678</v>
+        <v>89.321533923303832</v>
       </c>
       <c r="E26">
-        <v>90.825958702064895</v>
+        <v>89.675516224188783</v>
       </c>
       <c r="F26">
-        <v>88.289085545722713</v>
+        <v>90.560471976401189</v>
       </c>
       <c r="G26">
-        <v>85.43222692237822</v>
+        <v>83.186013719841867</v>
       </c>
       <c r="H26">
-        <v>65.111116878173689</v>
+        <v>60.608742290158219</v>
       </c>
       <c r="I26">
-        <v>49.056739245149181</v>
+        <v>52.944489139179403</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    88.8790560471976, 90.5014749262537, 90.8259587020649, 88.2890855457227, 85.4322269223782, 65.1111168781737, 49.0567392451492,</v>
+        <v xml:space="preserve">    89.1150442477876, 89.3215339233038, 89.6755162241888, 90.5604719764012, 83.1860137198419, 60.6087422901582, 52.9444891391794,</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -4146,29 +4258,29 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>85.221238938053105</v>
+        <v>84.778761061946895</v>
       </c>
       <c r="D27">
-        <v>84.070796460176979</v>
+        <v>84.041297935103245</v>
       </c>
       <c r="E27">
-        <v>83.687315634218294</v>
+        <v>84.247787610619469</v>
       </c>
       <c r="F27">
-        <v>84.070796460176979</v>
+        <v>81.285564754020371</v>
       </c>
       <c r="G27">
-        <v>82.566544693293196</v>
+        <v>78.483550895769</v>
       </c>
       <c r="H27">
-        <v>61.212986271507553</v>
+        <v>63.852282459190818</v>
       </c>
       <c r="I27">
-        <v>50.410730196627988</v>
+        <v>50.310815837507242</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    85.2212389380531, 84.070796460177, 83.6873156342183, 84.070796460177, 82.5665446932932, 61.2129862715076, 50.410730196628,</v>
+        <v xml:space="preserve">    84.7787610619469, 84.0412979351032, 84.2477876106195, 81.2855647540204, 78.483550895769, 63.8522824591908, 50.3108158375072,</v>
       </c>
     </row>
     <row r="28" spans="2:12">
@@ -4176,29 +4288,29 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>86.076696165191748</v>
+        <v>85.752212389380531</v>
       </c>
       <c r="D28">
-        <v>84.070969472054259</v>
+        <v>86.489675516224196</v>
       </c>
       <c r="E28">
-        <v>84.100294985250741</v>
+        <v>84.306784660766965</v>
       </c>
       <c r="F28">
-        <v>83.21533923303835</v>
+        <v>83.274336283185832</v>
       </c>
       <c r="G28">
-        <v>78.673085407313209</v>
+        <v>76.696511215494951</v>
       </c>
       <c r="H28">
-        <v>64.161800707618582</v>
+        <v>55.171151999584779</v>
       </c>
       <c r="I28">
-        <v>42.354864661459011</v>
+        <v>41.769738492547518</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    86.0766961651917, 84.0709694720543, 84.1002949852507, 83.2153392330383, 78.6730854073132, 64.1618007076186, 42.354864661459,</v>
+        <v xml:space="preserve">    85.7522123893805, 86.4896755162242, 84.306784660767, 83.2743362831858, 76.696511215495, 55.1711519995848, 41.7697384925475,</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -4206,29 +4318,29 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>99.292035398230084</v>
+        <v>99.174041297935105</v>
       </c>
       <c r="D29">
-        <v>99.026548672566378</v>
+        <v>98.938053097345133</v>
       </c>
       <c r="E29">
-        <v>98.731563421828909</v>
+        <v>98.761061946902657</v>
       </c>
       <c r="F29">
-        <v>98.200589970501468</v>
+        <v>97.994100294985259</v>
       </c>
       <c r="G29">
-        <v>97.463126843657818</v>
+        <v>97.964601769911511</v>
       </c>
       <c r="H29">
-        <v>78.287268921011417</v>
+        <v>75.654460678725599</v>
       </c>
       <c r="I29">
-        <v>58.402235313454277</v>
+        <v>61.970345764236718</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    99.2920353982301, 99.0265486725664, 98.7315634218289, 98.2005899705015, 97.4631268436578, 78.2872689210114, 58.4022353134543,</v>
+        <v xml:space="preserve">    99.1740412979351, 98.9380530973451, 98.7610619469027, 97.9941002949853, 97.9646017699115, 75.6544606787256, 61.9703457642367,</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -4236,29 +4348,29 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>99.882005899705021</v>
+        <v>99.705014749262531</v>
       </c>
       <c r="D30">
-        <v>99.941002949852503</v>
+        <v>99.646017699115049</v>
       </c>
       <c r="E30">
-        <v>99.764011799410042</v>
+        <v>99.911504424778769</v>
       </c>
       <c r="F30">
-        <v>99.587539684599349</v>
+        <v>99.528542634451853</v>
       </c>
       <c r="G30">
-        <v>98.879921106583964</v>
+        <v>98.495748233116203</v>
       </c>
       <c r="H30">
-        <v>78.048685542262476</v>
+        <v>75.538369709080527</v>
       </c>
       <c r="I30">
-        <v>52.471128642981341</v>
+        <v>60.978122648119793</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    99.882005899705, 99.9410029498525, 99.76401179941, 99.5875396845993, 98.879921106584, 78.0486855422625, 52.4711286429813,</v>
+        <v xml:space="preserve">    99.7050147492625, 99.646017699115, 99.9115044247788, 99.5285426344519, 98.4957482331162, 75.5383697090805, 60.9781226481198,</v>
       </c>
     </row>
     <row r="31" spans="2:12">
@@ -4266,29 +4378,62 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>95.221238938053105</v>
+        <v>95.693215339233035</v>
       </c>
       <c r="D31">
-        <v>94.542772861356937</v>
+        <v>94.572271386430685</v>
       </c>
       <c r="E31">
-        <v>96.312684365781706</v>
+        <v>96.725663716814168</v>
       </c>
       <c r="F31">
-        <v>97.492625368731566</v>
+        <v>97.729651640585132</v>
       </c>
       <c r="G31">
-        <v>98.820058997050154</v>
+        <v>99.35103244837758</v>
       </c>
       <c r="H31">
-        <v>87.563906262164906</v>
+        <v>86.341923373039563</v>
       </c>
       <c r="I31">
-        <v>51.1776918485454</v>
+        <v>51.353817939601548</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    95.2212389380531, 94.5427728613569, 96.3126843657817, 97.4926253687316, 98.8200589970502, 87.5639062621649, 51.1776918485454,</v>
+        <v xml:space="preserve">    95.693215339233, 94.5722713864307, 96.7256637168142, 97.7296516405851, 99.3510324483776, 86.3419233730396, 51.3538179396015,</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C2:C31)</f>
+        <v>93.311706848675144</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <v>92.970564912614606</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>92.714911028642149</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>91.618528995348868</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>84.537879508761606</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>58.728483810413579</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>46.321297473738248</v>
       </c>
     </row>
   </sheetData>
@@ -4298,10 +4443,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50462A5E-815A-456E-924B-DDF08B856179}">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAD918A-EF9C-4A0D-91E1-2603CD3B7B34}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -4339,6 +4486,984 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>89.73451327433628</v>
+      </c>
+      <c r="D2">
+        <v>89.203712834886119</v>
+      </c>
+      <c r="E2">
+        <v>85.162241887905608</v>
+      </c>
+      <c r="F2">
+        <v>84.601942923381699</v>
+      </c>
+      <c r="G2">
+        <v>82.921219041687209</v>
+      </c>
+      <c r="H2">
+        <v>60.122751926919783</v>
+      </c>
+      <c r="I2">
+        <v>45.782575973840601</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L31" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
+        <v xml:space="preserve">    89.7345132743363, 89.2037128348861, 85.1622418879056, 84.6019429233817, 82.9212190416872, 60.1227519269198, 45.7825759738406,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>93.598820058997063</v>
+      </c>
+      <c r="D3">
+        <v>93.598820058997063</v>
+      </c>
+      <c r="E3">
+        <v>93.185840707964601</v>
+      </c>
+      <c r="F3">
+        <v>92.271732454433007</v>
+      </c>
+      <c r="G3">
+        <v>84.98732687999032</v>
+      </c>
+      <c r="H3">
+        <v>54.964056782498119</v>
+      </c>
+      <c r="I3">
+        <v>50.828380868346613</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.5988200589971, 93.5988200589971, 93.1858407079646, 92.271732454433, 84.9873268799903, 54.9640567824981, 50.8283808683466,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>88.849557522123888</v>
+      </c>
+      <c r="D4">
+        <v>89.174041297935105</v>
+      </c>
+      <c r="E4">
+        <v>88.702064896755161</v>
+      </c>
+      <c r="F4">
+        <v>87.020648967551622</v>
+      </c>
+      <c r="G4">
+        <v>82.30088495575221</v>
+      </c>
+      <c r="H4">
+        <v>58.222129949221006</v>
+      </c>
+      <c r="I4">
+        <v>42.200711078815559</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    88.8495575221239, 89.1740412979351, 88.7020648967552, 87.0206489675516, 82.3008849557522, 58.222129949221, 42.2007110788156,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>92.684365781710909</v>
+      </c>
+      <c r="D5">
+        <v>91.858580091523294</v>
+      </c>
+      <c r="E5">
+        <v>92.153392330383483</v>
+      </c>
+      <c r="F5">
+        <v>90.029498525073748</v>
+      </c>
+      <c r="G5">
+        <v>71.14680922845352</v>
+      </c>
+      <c r="H5">
+        <v>57.493317416240629</v>
+      </c>
+      <c r="I5">
+        <v>41.869825863545529</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.6843657817109, 91.8585800915233, 92.1533923303835, 90.0294985250737, 71.1468092284535, 57.4933174162406, 41.8698258635455,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>95.811209439528028</v>
+      </c>
+      <c r="D6">
+        <v>95.073746312684364</v>
+      </c>
+      <c r="E6">
+        <v>94.690265486725664</v>
+      </c>
+      <c r="F6">
+        <v>92.714383342416454</v>
+      </c>
+      <c r="G6">
+        <v>77.24253670014447</v>
+      </c>
+      <c r="H6">
+        <v>48.320660213323649</v>
+      </c>
+      <c r="I6">
+        <v>37.898943762489303</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.811209439528, 95.0737463126844, 94.6902654867257, 92.7143833424165, 77.2425367001445, 48.3206602133236, 37.8989437624893,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>92.83185840707965</v>
+      </c>
+      <c r="D7">
+        <v>93.038348082595874</v>
+      </c>
+      <c r="E7">
+        <v>91.238938053097357</v>
+      </c>
+      <c r="F7">
+        <v>84.132994230053896</v>
+      </c>
+      <c r="G7">
+        <v>74.742082543966632</v>
+      </c>
+      <c r="H7">
+        <v>39.13494061367313</v>
+      </c>
+      <c r="I7">
+        <v>37.558715905846938</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.8318584070797, 93.0383480825959, 91.2389380530974, 84.1329942300539, 74.7420825439666, 39.1349406136731, 37.5587159058469,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>91.858407079646014</v>
+      </c>
+      <c r="D8">
+        <v>92.979351032448378</v>
+      </c>
+      <c r="E8">
+        <v>91.769911504424783</v>
+      </c>
+      <c r="F8">
+        <v>88.525073746312685</v>
+      </c>
+      <c r="G8">
+        <v>84.757048071350098</v>
+      </c>
+      <c r="H8">
+        <v>68.918502755214149</v>
+      </c>
+      <c r="I8">
+        <v>55.01855552383671</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    91.858407079646, 92.9793510324484, 91.7699115044248, 88.5250737463127, 84.7570480713501, 68.9185027552141, 55.0185555238367,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>97.610619469026545</v>
+      </c>
+      <c r="D9">
+        <v>94.86725663716814</v>
+      </c>
+      <c r="E9">
+        <v>95.722713864306783</v>
+      </c>
+      <c r="F9">
+        <v>96.283185840707958</v>
+      </c>
+      <c r="G9">
+        <v>87.061047240893089</v>
+      </c>
+      <c r="H9">
+        <v>68.695057915725911</v>
+      </c>
+      <c r="I9">
+        <v>52.446820474225561</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    97.6106194690265, 94.8672566371681, 95.7227138643068, 96.283185840708, 87.0610472408931, 68.6950579157259, 52.4468204742256,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>98.43657817109144</v>
+      </c>
+      <c r="D10">
+        <v>97.905604719764014</v>
+      </c>
+      <c r="E10">
+        <v>97.492625368731566</v>
+      </c>
+      <c r="F10">
+        <v>96.135866227216496</v>
+      </c>
+      <c r="G10">
+        <v>94.690784522357461</v>
+      </c>
+      <c r="H10">
+        <v>72.733760672670172</v>
+      </c>
+      <c r="I10">
+        <v>61.427261481500707</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    98.4365781710914, 97.905604719764, 97.4926253687316, 96.1358662272165, 94.6907845223575, 72.7337606726702, 61.4272614815007,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>94.336283185840699</v>
+      </c>
+      <c r="D11">
+        <v>96.607669616519175</v>
+      </c>
+      <c r="E11">
+        <v>95.044247787610615</v>
+      </c>
+      <c r="F11">
+        <v>93.59916608275158</v>
+      </c>
+      <c r="G11">
+        <v>82.122250192475718</v>
+      </c>
+      <c r="H11">
+        <v>63.14682652964126</v>
+      </c>
+      <c r="I11">
+        <v>53.511016531284866</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.3362831858407, 96.6076696165192, 95.0442477876106, 93.5991660827516, 82.1222501924757, 63.1468265296413, 53.5110165312849,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>91.740759003105566</v>
+      </c>
+      <c r="D12">
+        <v>90.737809150598181</v>
+      </c>
+      <c r="E12">
+        <v>89.764357823164559</v>
+      </c>
+      <c r="F12">
+        <v>89.174041297935105</v>
+      </c>
+      <c r="G12">
+        <v>82.991288851979689</v>
+      </c>
+      <c r="H12">
+        <v>51.206498326110093</v>
+      </c>
+      <c r="I12">
+        <v>45.169335374873476</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    91.7407590031056, 90.7378091505982, 89.7643578231646, 89.1740412979351, 82.9912888519797, 51.2064983261101, 45.1693353748735,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>95.486725663716811</v>
+      </c>
+      <c r="D13">
+        <v>94.95592522426665</v>
+      </c>
+      <c r="E13">
+        <v>93.893805309734518</v>
+      </c>
+      <c r="F13">
+        <v>93.333333333333343</v>
+      </c>
+      <c r="G13">
+        <v>87.94548395747367</v>
+      </c>
+      <c r="H13">
+        <v>55.343731347156982</v>
+      </c>
+      <c r="I13">
+        <v>46.058270400262977</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.4867256637168, 94.9559252242667, 93.8938053097345, 93.3333333333333, 87.9454839574737, 55.343731347157, 46.058270400263,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>93.038348082595874</v>
+      </c>
+      <c r="D14">
+        <v>92.890855457227147</v>
+      </c>
+      <c r="E14">
+        <v>92.861356932153384</v>
+      </c>
+      <c r="F14">
+        <v>90.619469026548671</v>
+      </c>
+      <c r="G14">
+        <v>83.543629270149395</v>
+      </c>
+      <c r="H14">
+        <v>52.131765845725297</v>
+      </c>
+      <c r="I14">
+        <v>46.120641182017152</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.0383480825959, 92.8908554572271, 92.8613569321534, 90.6194690265487, 83.5436292701494, 52.1317658457253, 46.1206411820172,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>92.832031418956916</v>
+      </c>
+      <c r="D15">
+        <v>90.265659737540972</v>
+      </c>
+      <c r="E15">
+        <v>90.531146463204692</v>
+      </c>
+      <c r="F15">
+        <v>87.967888995579557</v>
+      </c>
+      <c r="G15">
+        <v>80.565835344596408</v>
+      </c>
+      <c r="H15">
+        <v>48.580091523283073</v>
+      </c>
+      <c r="I15">
+        <v>41.428040034948403</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.8320314189569, 90.265659737541, 90.5311464632047, 87.9678889955796, 80.5658353445964, 48.5800915232831, 41.4280400349484,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>93.893978321611783</v>
+      </c>
+      <c r="D16">
+        <v>91.740412979351021</v>
+      </c>
+      <c r="E16">
+        <v>92.448377581120937</v>
+      </c>
+      <c r="F16">
+        <v>85.402555385427206</v>
+      </c>
+      <c r="G16">
+        <v>76.779210892827791</v>
+      </c>
+      <c r="H16">
+        <v>62.346214067595753</v>
+      </c>
+      <c r="I16">
+        <v>35.89217899808822</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.8939783216118, 91.740412979351, 92.4483775811209, 85.4025553854272, 76.7792108928278, 62.3462140675958, 35.8921789980882,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>94.719764011799413</v>
+      </c>
+      <c r="D17">
+        <v>95.929203539823007</v>
+      </c>
+      <c r="E17">
+        <v>96.047197640118</v>
+      </c>
+      <c r="F17">
+        <v>96.076696165191748</v>
+      </c>
+      <c r="G17">
+        <v>90.471976401179944</v>
+      </c>
+      <c r="H17">
+        <v>61.86229984688449</v>
+      </c>
+      <c r="I17">
+        <v>41.892403913528668</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.7197640117994, 95.929203539823, 96.047197640118, 96.0766961651917, 90.4719764011799, 61.8622998468845, 41.8924039135287,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>93.363004870284357</v>
+      </c>
+      <c r="D18">
+        <v>92.714037318661923</v>
+      </c>
+      <c r="E18">
+        <v>92.419571103556251</v>
+      </c>
+      <c r="F18">
+        <v>90.562548118928362</v>
+      </c>
+      <c r="G18">
+        <v>84.586977395998233</v>
+      </c>
+      <c r="H18">
+        <v>66.478429744201932</v>
+      </c>
+      <c r="I18">
+        <v>52.861529944030657</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.3630048702844, 92.7140373186619, 92.4195711035563, 90.5625481189284, 84.5869773959982, 66.4784297442019, 52.8615299440307,</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>96.283185840707958</v>
+      </c>
+      <c r="D19">
+        <v>97.050147492625371</v>
+      </c>
+      <c r="E19">
+        <v>97.168141592920364</v>
+      </c>
+      <c r="F19">
+        <v>94.542772861356937</v>
+      </c>
+      <c r="G19">
+        <v>91.652090416007056</v>
+      </c>
+      <c r="H19">
+        <v>76.034654279016252</v>
+      </c>
+      <c r="I19">
+        <v>53.115424873917597</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    96.283185840708, 97.0501474926254, 97.1681415929204, 94.5427728613569, 91.6520904160071, 76.0346542790163, 53.1154248739176,</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>94.011799410029496</v>
+      </c>
+      <c r="D20">
+        <v>91.710914454277287</v>
+      </c>
+      <c r="E20">
+        <v>92.477876106194685</v>
+      </c>
+      <c r="F20">
+        <v>91.567055078331123</v>
+      </c>
+      <c r="G20">
+        <v>83.558162267839677</v>
+      </c>
+      <c r="H20">
+        <v>60.715663630308221</v>
+      </c>
+      <c r="I20">
+        <v>46.284223911971559</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.0117994100295, 91.7109144542773, 92.4778761061947, 91.5670550783311, 83.5581622678397, 60.7156636303082, 46.2842239119716,</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>90.38382684971323</v>
+      </c>
+      <c r="D21">
+        <v>91.20961253990086</v>
+      </c>
+      <c r="E21">
+        <v>88.998780266265271</v>
+      </c>
+      <c r="F21">
+        <v>87.315980242043608</v>
+      </c>
+      <c r="G21">
+        <v>72.644746061817145</v>
+      </c>
+      <c r="H21">
+        <v>60.194205832230388</v>
+      </c>
+      <c r="I21">
+        <v>39.674132129170673</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    90.3838268497132, 91.2096125399009, 88.9987802662653, 87.3159802420436, 72.6447460618171, 60.1942058322304, 39.6741321291707,</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>93.303834808259595</v>
+      </c>
+      <c r="D22">
+        <v>93.333333333333343</v>
+      </c>
+      <c r="E22">
+        <v>93.661104334812578</v>
+      </c>
+      <c r="F22">
+        <v>93.187397814859992</v>
+      </c>
+      <c r="G22">
+        <v>89.739011583145185</v>
+      </c>
+      <c r="H22">
+        <v>71.326828086748151</v>
+      </c>
+      <c r="I22">
+        <v>56.628690559606909</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.3038348082596, 93.3333333333333, 93.6611043348126, 93.18739781486, 89.7390115831452, 71.3268280867482, 56.6286905596069,</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>91.061946902654867</v>
+      </c>
+      <c r="D23">
+        <v>92.713864306784657</v>
+      </c>
+      <c r="E23">
+        <v>90.058997050147497</v>
+      </c>
+      <c r="F23">
+        <v>89.469026548672559</v>
+      </c>
+      <c r="G23">
+        <v>74.747964947793662</v>
+      </c>
+      <c r="H23">
+        <v>51.118867810275177</v>
+      </c>
+      <c r="I23">
+        <v>37.917542539295333</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    91.0619469026549, 92.7138643067847, 90.0589970501475, 89.4690265486726, 74.7479649477937, 51.1188678102752, 37.9175425392953,</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>93.451327433628322</v>
+      </c>
+      <c r="D24">
+        <v>93.8646528084153</v>
+      </c>
+      <c r="E24">
+        <v>92.359882005899706</v>
+      </c>
+      <c r="F24">
+        <v>93.008849557522126</v>
+      </c>
+      <c r="G24">
+        <v>79.617816763120786</v>
+      </c>
+      <c r="H24">
+        <v>58.836235607574473</v>
+      </c>
+      <c r="I24">
+        <v>44.608344362840512</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.4513274336283, 93.8646528084153, 92.3598820058997, 93.0088495575221, 79.6178167631208, 58.8362356075745, 44.6083443628405,</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>93.893805309734518</v>
+      </c>
+      <c r="D25">
+        <v>93.362831858407077</v>
+      </c>
+      <c r="E25">
+        <v>92.212389380530979</v>
+      </c>
+      <c r="F25">
+        <v>90.26548672566372</v>
+      </c>
+      <c r="G25">
+        <v>83.097691156497888</v>
+      </c>
+      <c r="H25">
+        <v>54.326421508836589</v>
+      </c>
+      <c r="I25">
+        <v>36.101782887395217</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.8938053097345, 93.3628318584071, 92.212389380531, 90.2654867256637, 83.0976911564979, 54.3264215088366, 36.1017828873952,</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>88.879056047197636</v>
+      </c>
+      <c r="D26">
+        <v>90.501474926253678</v>
+      </c>
+      <c r="E26">
+        <v>90.825958702064895</v>
+      </c>
+      <c r="F26">
+        <v>88.289085545722713</v>
+      </c>
+      <c r="G26">
+        <v>85.43222692237822</v>
+      </c>
+      <c r="H26">
+        <v>65.111116878173689</v>
+      </c>
+      <c r="I26">
+        <v>49.056739245149181</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    88.8790560471976, 90.5014749262537, 90.8259587020649, 88.2890855457227, 85.4322269223782, 65.1111168781737, 49.0567392451492,</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>85.221238938053105</v>
+      </c>
+      <c r="D27">
+        <v>84.070796460176979</v>
+      </c>
+      <c r="E27">
+        <v>83.687315634218294</v>
+      </c>
+      <c r="F27">
+        <v>84.070796460176979</v>
+      </c>
+      <c r="G27">
+        <v>82.566544693293196</v>
+      </c>
+      <c r="H27">
+        <v>61.212986271507553</v>
+      </c>
+      <c r="I27">
+        <v>50.410730196627988</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    85.2212389380531, 84.070796460177, 83.6873156342183, 84.070796460177, 82.5665446932932, 61.2129862715076, 50.410730196628,</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>86.076696165191748</v>
+      </c>
+      <c r="D28">
+        <v>84.070969472054259</v>
+      </c>
+      <c r="E28">
+        <v>84.100294985250741</v>
+      </c>
+      <c r="F28">
+        <v>83.21533923303835</v>
+      </c>
+      <c r="G28">
+        <v>78.673085407313209</v>
+      </c>
+      <c r="H28">
+        <v>64.161800707618582</v>
+      </c>
+      <c r="I28">
+        <v>42.354864661459011</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    86.0766961651917, 84.0709694720543, 84.1002949852507, 83.2153392330383, 78.6730854073132, 64.1618007076186, 42.354864661459,</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>99.292035398230084</v>
+      </c>
+      <c r="D29">
+        <v>99.026548672566378</v>
+      </c>
+      <c r="E29">
+        <v>98.731563421828909</v>
+      </c>
+      <c r="F29">
+        <v>98.200589970501468</v>
+      </c>
+      <c r="G29">
+        <v>97.463126843657818</v>
+      </c>
+      <c r="H29">
+        <v>78.287268921011417</v>
+      </c>
+      <c r="I29">
+        <v>58.402235313454277</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    99.2920353982301, 99.0265486725664, 98.7315634218289, 98.2005899705015, 97.4631268436578, 78.2872689210114, 58.4022353134543,</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>99.882005899705021</v>
+      </c>
+      <c r="D30">
+        <v>99.941002949852503</v>
+      </c>
+      <c r="E30">
+        <v>99.764011799410042</v>
+      </c>
+      <c r="F30">
+        <v>99.587539684599349</v>
+      </c>
+      <c r="G30">
+        <v>98.879921106583964</v>
+      </c>
+      <c r="H30">
+        <v>78.048685542262476</v>
+      </c>
+      <c r="I30">
+        <v>52.471128642981341</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    99.882005899705, 99.9410029498525, 99.76401179941, 99.5875396845993, 98.879921106584, 78.0486855422625, 52.4711286429813,</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>95.221238938053105</v>
+      </c>
+      <c r="D31">
+        <v>94.542772861356937</v>
+      </c>
+      <c r="E31">
+        <v>96.312684365781706</v>
+      </c>
+      <c r="F31">
+        <v>97.492625368731566</v>
+      </c>
+      <c r="G31">
+        <v>98.820058997050154</v>
+      </c>
+      <c r="H31">
+        <v>87.563906262164906</v>
+      </c>
+      <c r="I31">
+        <v>51.1776918485454</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.2212389380531, 94.5427728613569, 96.3126843657817, 97.4926253687316, 98.8200589970502, 87.5639062621649, 51.1776918485454,</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C2:C31)</f>
+        <v>93.259627390086948</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <v>92.96466520759985</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>92.449568479542819</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>90.955452325135468</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>84.191627955259108</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>61.887989227127122</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>46.872291282796567</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17719799-93AF-4DE1-88F6-5FBA055867B2}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I1" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>90.796460176991147</v>
       </c>
       <c r="D2">
@@ -5232,6 +6357,1995 @@
       <c r="L31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    95.5457227138643, 97.8761061946903, 98.2300884955752, 98.9970501474926, 98.6151264284293, 95.1101653128487, 79.1354596493049,</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C2:C31)</f>
+        <v>93.593909405214006</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <v>93.284284466128597</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>92.669714559237818</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>89.612317868955031</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>84.325126803288398</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>63.60927285991518</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>49.422076892245308</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8F08E0-F1E7-48C1-B3C0-C5EC0902C271}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I1" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>89.82318186143479</v>
+      </c>
+      <c r="D2">
+        <v>88.053097345132741</v>
+      </c>
+      <c r="E2">
+        <v>84.926253687315636</v>
+      </c>
+      <c r="F2">
+        <v>82.714037318661923</v>
+      </c>
+      <c r="G2">
+        <v>83.570186593309629</v>
+      </c>
+      <c r="H2">
+        <v>62.338947568750577</v>
+      </c>
+      <c r="I2">
+        <v>46.020294293203229</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L31" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
+        <v xml:space="preserve">    89.8231818614348, 88.0530973451327, 84.9262536873156, 82.7140373186619, 83.5701865933096, 62.3389475687506, 46.0202942932032,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>94.719764011799413</v>
+      </c>
+      <c r="D3">
+        <v>94.424778761061958</v>
+      </c>
+      <c r="E3">
+        <v>92.56637168141593</v>
+      </c>
+      <c r="F3">
+        <v>92.390072578482517</v>
+      </c>
+      <c r="G3">
+        <v>87.056894955838715</v>
+      </c>
+      <c r="H3">
+        <v>56.195555324873062</v>
+      </c>
+      <c r="I3">
+        <v>44.605230149049731</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.7197640117994, 94.424778761062, 92.5663716814159, 92.3900725784825, 87.0568949558387, 56.1955553248731, 44.6052301490497,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>88.466076696165189</v>
+      </c>
+      <c r="D4">
+        <v>88.259587020648979</v>
+      </c>
+      <c r="E4">
+        <v>88.466076696165189</v>
+      </c>
+      <c r="F4">
+        <v>87.640117994100294</v>
+      </c>
+      <c r="G4">
+        <v>84.631268436578168</v>
+      </c>
+      <c r="H4">
+        <v>55.864843121480291</v>
+      </c>
+      <c r="I4">
+        <v>35.769686588984342</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    88.4660766961652, 88.259587020649, 88.4660766961652, 87.6401179941003, 84.6312684365782, 55.8648431214803, 35.7696865889843,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>92.477876106194685</v>
+      </c>
+      <c r="D5">
+        <v>92.094395280236</v>
+      </c>
+      <c r="E5">
+        <v>92.38955354285072</v>
+      </c>
+      <c r="F5">
+        <v>89.970501474926252</v>
+      </c>
+      <c r="G5">
+        <v>80.673535238194106</v>
+      </c>
+      <c r="H5">
+        <v>53.363696917793398</v>
+      </c>
+      <c r="I5">
+        <v>43.016116056367267</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.4778761061947, 92.094395280236, 92.3895535428507, 89.9705014749263, 80.6735352381941, 53.3636969177934, 43.0161160563673,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>95.575221238938042</v>
+      </c>
+      <c r="D6">
+        <v>95.309734513274336</v>
+      </c>
+      <c r="E6">
+        <v>95.103244837758112</v>
+      </c>
+      <c r="F6">
+        <v>93.392330383480825</v>
+      </c>
+      <c r="G6">
+        <v>78.233375721243263</v>
+      </c>
+      <c r="H6">
+        <v>48.559070580195318</v>
+      </c>
+      <c r="I6">
+        <v>37.471431413766553</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.575221238938, 95.3097345132743, 95.1032448377581, 93.3923303834808, 78.2333757212433, 48.5590705801953, 37.4714314137666,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>94.21828908554572</v>
+      </c>
+      <c r="D7">
+        <v>94.631268436578168</v>
+      </c>
+      <c r="E7">
+        <v>91.002949852507385</v>
+      </c>
+      <c r="F7">
+        <v>87.847472729002845</v>
+      </c>
+      <c r="G7">
+        <v>76.551873286101085</v>
+      </c>
+      <c r="H7">
+        <v>40.614192164292078</v>
+      </c>
+      <c r="I7">
+        <v>32.998209327070313</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.2182890855457, 94.6312684365782, 91.0029498525074, 87.8474727290028, 76.5518732861011, 40.6141921642921, 32.9982093270703,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>91.710914454277287</v>
+      </c>
+      <c r="D8">
+        <v>92.477876106194685</v>
+      </c>
+      <c r="E8">
+        <v>93.274336283185832</v>
+      </c>
+      <c r="F8">
+        <v>92.182890855457231</v>
+      </c>
+      <c r="G8">
+        <v>84.973053400115916</v>
+      </c>
+      <c r="H8">
+        <v>64.95860690836426</v>
+      </c>
+      <c r="I8">
+        <v>61.248540212285569</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    91.7109144542773, 92.4778761061947, 93.2743362831858, 92.1828908554572, 84.9730534001159, 64.9586069083643, 61.2485402122856,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>96.25368731563421</v>
+      </c>
+      <c r="D9">
+        <v>96.843657817109147</v>
+      </c>
+      <c r="E9">
+        <v>96.725663716814168</v>
+      </c>
+      <c r="F9">
+        <v>96.283185840707958</v>
+      </c>
+      <c r="G9">
+        <v>91.594477460877698</v>
+      </c>
+      <c r="H9">
+        <v>61.071549061843101</v>
+      </c>
+      <c r="I9">
+        <v>52.37951885396933</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    96.2536873156342, 96.8436578171091, 96.7256637168142, 96.283185840708, 91.5944774608777, 61.0715490618431, 52.3795188539693,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>97.876106194690266</v>
+      </c>
+      <c r="D10">
+        <v>98.790560471976406</v>
+      </c>
+      <c r="E10">
+        <v>97.876106194690266</v>
+      </c>
+      <c r="F10">
+        <v>97.787610619469021</v>
+      </c>
+      <c r="G10">
+        <v>93.689218764868215</v>
+      </c>
+      <c r="H10">
+        <v>68.671095770724662</v>
+      </c>
+      <c r="I10">
+        <v>56.366837083365773</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    97.8761061946903, 98.7905604719764, 97.8761061946903, 97.787610619469, 93.6892187648682, 68.6710957707247, 56.3668370833658,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>94.542772861356937</v>
+      </c>
+      <c r="D11">
+        <v>94.749262536873147</v>
+      </c>
+      <c r="E11">
+        <v>95.250737463126853</v>
+      </c>
+      <c r="F11">
+        <v>93.864306784660769</v>
+      </c>
+      <c r="G11">
+        <v>81.559702073547356</v>
+      </c>
+      <c r="H11">
+        <v>62.819055528162018</v>
+      </c>
+      <c r="I11">
+        <v>46.7959065389839</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.5427728613569, 94.7492625368731, 95.2507374631269, 93.8643067846608, 81.5597020735474, 62.819055528162, 46.7959065389839,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>91.681415929203538</v>
+      </c>
+      <c r="D12">
+        <v>90.826304725819426</v>
+      </c>
+      <c r="E12">
+        <v>89.675516224188783</v>
+      </c>
+      <c r="F12">
+        <v>89.056047197640126</v>
+      </c>
+      <c r="G12">
+        <v>84.543291896988734</v>
+      </c>
+      <c r="H12">
+        <v>53.056427823770107</v>
+      </c>
+      <c r="I12">
+        <v>45.365790361508317</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    91.6814159292035, 90.8263047258194, 89.6755162241888, 89.0560471976401, 84.5432918969887, 53.0564278237701, 45.3657903615083,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>95.752212389380531</v>
+      </c>
+      <c r="D13">
+        <v>94.955752212389385</v>
+      </c>
+      <c r="E13">
+        <v>94.51362036003772</v>
+      </c>
+      <c r="F13">
+        <v>92.807896262078401</v>
+      </c>
+      <c r="G13">
+        <v>90.325002811442999</v>
+      </c>
+      <c r="H13">
+        <v>61.826313376413303</v>
+      </c>
+      <c r="I13">
+        <v>38.861841365409738</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.7522123893805, 94.9557522123894, 94.5136203600377, 92.8078962620784, 90.325002811443, 61.8263133764133, 38.8618413654097,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>92.56637168141593</v>
+      </c>
+      <c r="D14">
+        <v>93.097345132743357</v>
+      </c>
+      <c r="E14">
+        <v>91.976401179941007</v>
+      </c>
+      <c r="F14">
+        <v>88.879056047197636</v>
+      </c>
+      <c r="G14">
+        <v>84.572271386430685</v>
+      </c>
+      <c r="H14">
+        <v>58.437356724539143</v>
+      </c>
+      <c r="I14">
+        <v>51.84733431950103</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.5663716814159, 93.0973451327434, 91.976401179941, 88.8790560471976, 84.5722713864307, 58.4373567245391, 51.847334319501,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>90.796633188868412</v>
+      </c>
+      <c r="D15">
+        <v>92.448550592998203</v>
+      </c>
+      <c r="E15">
+        <v>90.767307675671944</v>
+      </c>
+      <c r="F15">
+        <v>90.651908753535935</v>
+      </c>
+      <c r="G15">
+        <v>83.783423732039211</v>
+      </c>
+      <c r="H15">
+        <v>49.786935873147691</v>
+      </c>
+      <c r="I15">
+        <v>38.357771260997069</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    90.7966331888684, 92.4485505929982, 90.7673076756719, 90.6519087535359, 83.7834237320392, 49.7869358731477, 38.3577712609971,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>93.274336283185846</v>
+      </c>
+      <c r="D16">
+        <v>93.628318584070797</v>
+      </c>
+      <c r="E16">
+        <v>92.330383480825958</v>
+      </c>
+      <c r="F16">
+        <v>90.266351785050034</v>
+      </c>
+      <c r="G16">
+        <v>82.45218384242078</v>
+      </c>
+      <c r="H16">
+        <v>46.659573179698789</v>
+      </c>
+      <c r="I16">
+        <v>46.107751797160873</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.2743362831858, 93.6283185840708, 92.330383480826, 90.26635178505, 82.4521838424208, 46.6595731796988, 46.1077517971609,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>95.60471976401179</v>
+      </c>
+      <c r="D17">
+        <v>95.958702064896755</v>
+      </c>
+      <c r="E17">
+        <v>95.575221238938056</v>
+      </c>
+      <c r="F17">
+        <v>96.666666666666657</v>
+      </c>
+      <c r="G17">
+        <v>92.094395280236</v>
+      </c>
+      <c r="H17">
+        <v>59.052673466033447</v>
+      </c>
+      <c r="I17">
+        <v>45.769773094922968</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.6047197640118, 95.9587020648968, 95.5752212389381, 96.6666666666667, 92.094395280236, 59.0526734660334, 45.769773094923,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>92.802359882005902</v>
+      </c>
+      <c r="D18">
+        <v>92.86170295590793</v>
+      </c>
+      <c r="E18">
+        <v>92.950198531129161</v>
+      </c>
+      <c r="F18">
+        <v>91.653647522902446</v>
+      </c>
+      <c r="G18">
+        <v>85.478853623301248</v>
+      </c>
+      <c r="H18">
+        <v>58.065986729989007</v>
+      </c>
+      <c r="I18">
+        <v>51.065234128322913</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.8023598820059, 92.8617029559079, 92.9501985311292, 91.6536475229024, 85.4788536233012, 58.065986729989, 51.0652341283229,</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>96.460176991150448</v>
+      </c>
+      <c r="D19">
+        <v>96.312684365781706</v>
+      </c>
+      <c r="E19">
+        <v>96.755162241887916</v>
+      </c>
+      <c r="F19">
+        <v>95.251775534390433</v>
+      </c>
+      <c r="G19">
+        <v>91.478040467478095</v>
+      </c>
+      <c r="H19">
+        <v>65.782316456024702</v>
+      </c>
+      <c r="I19">
+        <v>50.44870630368775</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    96.4601769911504, 96.3126843657817, 96.7551622418879, 95.2517755343904, 91.4780404674781, 65.7823164560247, 50.4487063036878,</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>93.510324483775804</v>
+      </c>
+      <c r="D20">
+        <v>93.362831858407077</v>
+      </c>
+      <c r="E20">
+        <v>90.738328186229992</v>
+      </c>
+      <c r="F20">
+        <v>88.10699054490091</v>
+      </c>
+      <c r="G20">
+        <v>84.914229361845699</v>
+      </c>
+      <c r="H20">
+        <v>59.834341127518407</v>
+      </c>
+      <c r="I20">
+        <v>46.398930786598498</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.5103244837758, 93.3628318584071, 90.73832818623, 88.1069905449009, 84.9142293618457, 59.8343411275184, 46.3989307865985,</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>90.08866858709851</v>
+      </c>
+      <c r="D21">
+        <v>89.115217259664874</v>
+      </c>
+      <c r="E21">
+        <v>88.147475324181002</v>
+      </c>
+      <c r="F21">
+        <v>82.513257035095464</v>
+      </c>
+      <c r="G21">
+        <v>79.307087431552176</v>
+      </c>
+      <c r="H21">
+        <v>62.367754046315277</v>
+      </c>
+      <c r="I21">
+        <v>31.661606069256649</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    90.0886685870985, 89.1152172596649, 88.147475324181, 82.5132570350955, 79.3070874315522, 62.3677540463153, 31.6616060692566,</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>93.274336283185832</v>
+      </c>
+      <c r="D22">
+        <v>93.244837758112084</v>
+      </c>
+      <c r="E22">
+        <v>95.103244837758126</v>
+      </c>
+      <c r="F22">
+        <v>94.86725663716814</v>
+      </c>
+      <c r="G22">
+        <v>90.449744374951337</v>
+      </c>
+      <c r="H22">
+        <v>68.61780811252693</v>
+      </c>
+      <c r="I22">
+        <v>44.425643820448272</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.2743362831858, 93.2448377581121, 95.1032448377581, 94.8672566371681, 90.4497443749513, 68.6178081125269, 44.4256438204483,</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>92.241887905604727</v>
+      </c>
+      <c r="D23">
+        <v>92.330383480825958</v>
+      </c>
+      <c r="E23">
+        <v>91.533923303834811</v>
+      </c>
+      <c r="F23">
+        <v>89.793510324483776</v>
+      </c>
+      <c r="G23">
+        <v>81.594650472754964</v>
+      </c>
+      <c r="H23">
+        <v>46.994091644391389</v>
+      </c>
+      <c r="I23">
+        <v>32.410314968122563</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.2418879056047, 92.330383480826, 91.5339233038348, 89.7935103244838, 81.594650472755, 46.9940916443914, 32.4103149681226,</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>94.601769911504419</v>
+      </c>
+      <c r="D24">
+        <v>93.539996020726818</v>
+      </c>
+      <c r="E24">
+        <v>93.362831858407077</v>
+      </c>
+      <c r="F24">
+        <v>94.454277286135692</v>
+      </c>
+      <c r="G24">
+        <v>86.351525532227782</v>
+      </c>
+      <c r="H24">
+        <v>53.121480289621879</v>
+      </c>
+      <c r="I24">
+        <v>38.568759245322191</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.6017699115044, 93.5399960207268, 93.3628318584071, 94.4542772861357, 86.3515255322278, 53.1214802896219, 38.5687592453222,</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>95.221238938053105</v>
+      </c>
+      <c r="D25">
+        <v>93.834808259587021</v>
+      </c>
+      <c r="E25">
+        <v>91.887905604719762</v>
+      </c>
+      <c r="F25">
+        <v>90.147492625368727</v>
+      </c>
+      <c r="G25">
+        <v>85.191740412979357</v>
+      </c>
+      <c r="H25">
+        <v>57.020389449735731</v>
+      </c>
+      <c r="I25">
+        <v>33.891815673145963</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.2212389380531, 93.834808259587, 91.8879056047198, 90.1474926253687, 85.1917404129794, 57.0203894497357, 33.891815673146,</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>89.528023598820056</v>
+      </c>
+      <c r="D26">
+        <v>90.058997050147497</v>
+      </c>
+      <c r="E26">
+        <v>89.941002949852503</v>
+      </c>
+      <c r="F26">
+        <v>89.469026548672574</v>
+      </c>
+      <c r="G26">
+        <v>83.334025380842405</v>
+      </c>
+      <c r="H26">
+        <v>63.138348947655253</v>
+      </c>
+      <c r="I26">
+        <v>50.208392806166152</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    89.5280235988201, 90.0589970501475, 89.9410029498525, 89.4690265486726, 83.3340253808424, 63.1383489476553, 50.2083928061662,</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>84.601769911504419</v>
+      </c>
+      <c r="D27">
+        <v>84.188790560471972</v>
+      </c>
+      <c r="E27">
+        <v>85.486725663716811</v>
+      </c>
+      <c r="F27">
+        <v>84.896755162241874</v>
+      </c>
+      <c r="G27">
+        <v>83.097345132743357</v>
+      </c>
+      <c r="H27">
+        <v>58.996963641553997</v>
+      </c>
+      <c r="I27">
+        <v>49.308904056263472</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    84.6017699115044, 84.188790560472, 85.4867256637168, 84.8967551622419, 83.0973451327434, 58.996963641554, 49.3089040562635,</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>87.197640117994098</v>
+      </c>
+      <c r="D28">
+        <v>85.78171091445428</v>
+      </c>
+      <c r="E28">
+        <v>85.693215339233035</v>
+      </c>
+      <c r="F28">
+        <v>82.684365781710909</v>
+      </c>
+      <c r="G28">
+        <v>76.633621398108986</v>
+      </c>
+      <c r="H28">
+        <v>63.182466976357929</v>
+      </c>
+      <c r="I28">
+        <v>41.49369804237061</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    87.1976401179941, 85.7817109144543, 85.693215339233, 82.6843657817109, 76.633621398109, 63.1824669763579, 41.4936980423706,</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>99.085545722713874</v>
+      </c>
+      <c r="D29">
+        <v>99.144542772861357</v>
+      </c>
+      <c r="E29">
+        <v>98.849557522123888</v>
+      </c>
+      <c r="F29">
+        <v>98.761061946902657</v>
+      </c>
+      <c r="G29">
+        <v>96.725663716814168</v>
+      </c>
+      <c r="H29">
+        <v>77.9598439432867</v>
+      </c>
+      <c r="I29">
+        <v>60.625091912559803</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    99.0855457227139, 99.1445427728614, 98.8495575221239, 98.7610619469027, 96.7256637168142, 77.9598439432867, 60.6250919125598,</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>99.734513274336294</v>
+      </c>
+      <c r="D30">
+        <v>99.911504424778769</v>
+      </c>
+      <c r="E30">
+        <v>99.793510324483776</v>
+      </c>
+      <c r="F30">
+        <v>99.73451327433628</v>
+      </c>
+      <c r="G30">
+        <v>99.174041297935105</v>
+      </c>
+      <c r="H30">
+        <v>77.042621475964324</v>
+      </c>
+      <c r="I30">
+        <v>53.717333194923832</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    99.7345132743363, 99.9115044247788, 99.7935103244838, 99.7345132743363, 99.1740412979351, 77.0426214759643, 53.7173331949238,</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>94.454277286135692</v>
+      </c>
+      <c r="D31">
+        <v>94.542772861356937</v>
+      </c>
+      <c r="E31">
+        <v>95.575221238938042</v>
+      </c>
+      <c r="F31">
+        <v>97.138643067846601</v>
+      </c>
+      <c r="G31">
+        <v>98.968243669927944</v>
+      </c>
+      <c r="H31">
+        <v>88.772653742679438</v>
+      </c>
+      <c r="I31">
+        <v>50.060208133288363</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.4542772861357, 94.5427728613569, 95.575221238938, 97.1386430678466, 98.9682436699279, 88.7726537426794, 50.0602081332884,</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C2:C31)</f>
+        <v>93.271403731866201</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <v>93.159332404836249</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>92.607934901397641</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>91.395767552775823</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>86.100098905123176</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>60.13909866579008</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>45.242222395234094</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09111D4-DC2D-4B58-B6E1-9B3D38D5C9B5}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I1" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>88.849557522123888</v>
+      </c>
+      <c r="D2">
+        <v>87.553006513897188</v>
+      </c>
+      <c r="E2">
+        <v>85.988200589970504</v>
+      </c>
+      <c r="F2">
+        <v>87.551622418879063</v>
+      </c>
+      <c r="G2">
+        <v>87.109490566527398</v>
+      </c>
+      <c r="H2">
+        <v>64.582392581250701</v>
+      </c>
+      <c r="I2">
+        <v>49.461760049827419</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L31" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
+        <v xml:space="preserve">    88.8495575221239, 87.5530065138972, 85.9882005899705, 87.5516224188791, 87.1094905665274, 64.5823925812507, 49.4617600498274,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>95.044247787610615</v>
+      </c>
+      <c r="D3">
+        <v>94.041297935103245</v>
+      </c>
+      <c r="E3">
+        <v>92.536873156342182</v>
+      </c>
+      <c r="F3">
+        <v>91.474926253687315</v>
+      </c>
+      <c r="G3">
+        <v>83.664218548603372</v>
+      </c>
+      <c r="H3">
+        <v>59.204750906149712</v>
+      </c>
+      <c r="I3">
+        <v>50.598102059706399</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.0442477876106, 94.0412979351032, 92.5368731563422, 91.4749262536873, 83.6642185486034, 59.2047509061497, 50.5981020597064,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>89.262536873156336</v>
+      </c>
+      <c r="D4">
+        <v>88.820058997050154</v>
+      </c>
+      <c r="E4">
+        <v>88.820058997050154</v>
+      </c>
+      <c r="F4">
+        <v>86.51917404129793</v>
+      </c>
+      <c r="G4">
+        <v>81.475272277441846</v>
+      </c>
+      <c r="H4">
+        <v>59.187276706545902</v>
+      </c>
+      <c r="I4">
+        <v>48.891858926115283</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    89.2625368731563, 88.8200589970502, 88.8200589970502, 86.5191740412979, 81.4752722774418, 59.1872767065459, 48.8918589261153,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>92.949852507374629</v>
+      </c>
+      <c r="D5">
+        <v>91.976401179941007</v>
+      </c>
+      <c r="E5">
+        <v>94.159292035398238</v>
+      </c>
+      <c r="F5">
+        <v>89.469026548672574</v>
+      </c>
+      <c r="G5">
+        <v>84.51517746693311</v>
+      </c>
+      <c r="H5">
+        <v>63.08679140823017</v>
+      </c>
+      <c r="I5">
+        <v>50.416958624209563</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.9498525073746, 91.976401179941, 94.1592920353982, 89.4690265486726, 84.5151774669331, 63.0867914082302, 50.4169586242096,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>95.545722713864308</v>
+      </c>
+      <c r="D6">
+        <v>94.86725663716814</v>
+      </c>
+      <c r="E6">
+        <v>91.002949852507385</v>
+      </c>
+      <c r="F6">
+        <v>92.861356932153384</v>
+      </c>
+      <c r="G6">
+        <v>78.653448559243586</v>
+      </c>
+      <c r="H6">
+        <v>47.938217458628543</v>
+      </c>
+      <c r="I6">
+        <v>35.415358264344853</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.5457227138643, 94.8672566371681, 91.0029498525074, 92.8613569321534, 78.6534485592436, 47.9382174586285, 35.4153582643449,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>95.368731563421832</v>
+      </c>
+      <c r="D7">
+        <v>94.985250737463133</v>
+      </c>
+      <c r="E7">
+        <v>91.711087466154552</v>
+      </c>
+      <c r="F7">
+        <v>86.283185840707958</v>
+      </c>
+      <c r="G7">
+        <v>79.264266991928992</v>
+      </c>
+      <c r="H7">
+        <v>43.532123980311248</v>
+      </c>
+      <c r="I7">
+        <v>39.251031583318188</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.3687315634218, 94.9852507374631, 91.7110874661546, 86.283185840708, 79.264266991929, 43.5321239803112, 39.2510315833182,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>92.536873156342182</v>
+      </c>
+      <c r="D8">
+        <v>92.182890855457231</v>
+      </c>
+      <c r="E8">
+        <v>92.241887905604727</v>
+      </c>
+      <c r="F8">
+        <v>91.474926253687315</v>
+      </c>
+      <c r="G8">
+        <v>86.696511215494951</v>
+      </c>
+      <c r="H8">
+        <v>67.170823277017959</v>
+      </c>
+      <c r="I8">
+        <v>60.989627937957927</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.5368731563422, 92.1828908554572, 92.2418879056047, 91.4749262536873, 86.696511215495, 67.170823277018, 60.9896279379579,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>97.463126843657818</v>
+      </c>
+      <c r="D9">
+        <v>97.817109144542769</v>
+      </c>
+      <c r="E9">
+        <v>97.286135693215343</v>
+      </c>
+      <c r="F9">
+        <v>94.778761061946895</v>
+      </c>
+      <c r="G9">
+        <v>92.639382693621911</v>
+      </c>
+      <c r="H9">
+        <v>76.456630247666496</v>
+      </c>
+      <c r="I9">
+        <v>51.856157925241561</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    97.4631268436578, 97.8171091445428, 97.2861356932153, 94.7787610619469, 92.6393826936219, 76.4566302476665, 51.8561579252416,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>98.407079646017706</v>
+      </c>
+      <c r="D10">
+        <v>98.230088495575231</v>
+      </c>
+      <c r="E10">
+        <v>97.463126843657818</v>
+      </c>
+      <c r="F10">
+        <v>96.430678466076699</v>
+      </c>
+      <c r="G10">
+        <v>91.38660369034335</v>
+      </c>
+      <c r="H10">
+        <v>75.866486734314307</v>
+      </c>
+      <c r="I10">
+        <v>58.077059490133998</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    98.4070796460177, 98.2300884955752, 97.4631268436578, 96.4306784660767, 91.3866036903433, 75.8664867343143, 58.077059490134,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>96.076696165191748</v>
+      </c>
+      <c r="D11">
+        <v>96.283185840707958</v>
+      </c>
+      <c r="E11">
+        <v>94.070796460176979</v>
+      </c>
+      <c r="F11">
+        <v>89.528023598820056</v>
+      </c>
+      <c r="G11">
+        <v>82.131679339786672</v>
+      </c>
+      <c r="H11">
+        <v>59.46366318047734</v>
+      </c>
+      <c r="I11">
+        <v>46.17834064308515</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    96.0766961651917, 96.283185840708, 94.070796460177, 89.5280235988201, 82.1316793397867, 59.4636631804773, 46.1783406430851,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>90.973451327433636</v>
+      </c>
+      <c r="D12">
+        <v>90.442477876106196</v>
+      </c>
+      <c r="E12">
+        <v>89.115217259664888</v>
+      </c>
+      <c r="F12">
+        <v>86.578171091445427</v>
+      </c>
+      <c r="G12">
+        <v>83.687488646095545</v>
+      </c>
+      <c r="H12">
+        <v>62.578396006885868</v>
+      </c>
+      <c r="I12">
+        <v>48.672739383558678</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    90.9734513274336, 90.4424778761062, 89.1152172596649, 86.5781710914454, 83.6874886460955, 62.5783960068859, 48.6727393835587,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>95.427728613569315</v>
+      </c>
+      <c r="D13">
+        <v>94.247787610619469</v>
+      </c>
+      <c r="E13">
+        <v>94.719764011799413</v>
+      </c>
+      <c r="F13">
+        <v>90.294985250737469</v>
+      </c>
+      <c r="G13">
+        <v>85.728423256256548</v>
+      </c>
+      <c r="H13">
+        <v>62.442841201048452</v>
+      </c>
+      <c r="I13">
+        <v>54.161541189802684</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.4277286135693, 94.2477876106195, 94.7197640117994, 90.2949852507375, 85.7284232562565, 62.4428412010485, 54.1615411898027,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>92.359882005899706</v>
+      </c>
+      <c r="D14">
+        <v>92.949852507374629</v>
+      </c>
+      <c r="E14">
+        <v>87.345132743362825</v>
+      </c>
+      <c r="F14">
+        <v>84.896755162241888</v>
+      </c>
+      <c r="G14">
+        <v>82.536873156342182</v>
+      </c>
+      <c r="H14">
+        <v>67.183020614365176</v>
+      </c>
+      <c r="I14">
+        <v>59.215218124724267</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.3598820058997, 92.9498525073746, 87.3451327433628, 84.8967551622419, 82.5368731563422, 67.1830206143652, 59.2152181247243,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>93.539996020726818</v>
+      </c>
+      <c r="D15">
+        <v>93.451673457382839</v>
+      </c>
+      <c r="E15">
+        <v>93.423213003572698</v>
+      </c>
+      <c r="F15">
+        <v>89.913061531674145</v>
+      </c>
+      <c r="G15">
+        <v>79.383818199119361</v>
+      </c>
+      <c r="H15">
+        <v>58.391335565186537</v>
+      </c>
+      <c r="I15">
+        <v>48.590299224041729</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.5399960207268, 93.4516734573828, 93.4232130035727, 89.9130615316741, 79.3838181991194, 58.3913355651865, 48.5902992240417,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>92.832031418956916</v>
+      </c>
+      <c r="D16">
+        <v>89.911504424778769</v>
+      </c>
+      <c r="E16">
+        <v>88.230088495575231</v>
+      </c>
+      <c r="F16">
+        <v>76.966323238090297</v>
+      </c>
+      <c r="G16">
+        <v>73.519494113270881</v>
+      </c>
+      <c r="H16">
+        <v>47.809496621943097</v>
+      </c>
+      <c r="I16">
+        <v>42.899679062967678</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.8320314189569, 89.9115044247788, 88.2300884955752, 76.9663232380903, 73.5194941132709, 47.8094966219431, 42.8996790629677,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>95.486725663716811</v>
+      </c>
+      <c r="D17">
+        <v>96.283185840707958</v>
+      </c>
+      <c r="E17">
+        <v>95.280235988200587</v>
+      </c>
+      <c r="F17">
+        <v>91.887905604719762</v>
+      </c>
+      <c r="G17">
+        <v>84.579710897153092</v>
+      </c>
+      <c r="H17">
+        <v>62.966461647592112</v>
+      </c>
+      <c r="I17">
+        <v>45.57401015579719</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.4867256637168, 96.283185840708, 95.2802359882006, 91.8879056047198, 84.5797108971531, 62.9664616475921, 45.5740101557972,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>94.690265486725664</v>
+      </c>
+      <c r="D18">
+        <v>93.451327433628322</v>
+      </c>
+      <c r="E18">
+        <v>93.776849280703118</v>
+      </c>
+      <c r="F18">
+        <v>85.66752307545913</v>
+      </c>
+      <c r="G18">
+        <v>76.026176697030252</v>
+      </c>
+      <c r="H18">
+        <v>61.128469969463403</v>
+      </c>
+      <c r="I18">
+        <v>56.806719781312992</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.6902654867257, 93.4513274336283, 93.7768492807031, 85.6675230754591, 76.0261766970303, 61.1284699694634, 56.806719781313,</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>97.286135693215343</v>
+      </c>
+      <c r="D19">
+        <v>95.958702064896755</v>
+      </c>
+      <c r="E19">
+        <v>94.808259587020643</v>
+      </c>
+      <c r="F19">
+        <v>90.943952802359874</v>
+      </c>
+      <c r="G19">
+        <v>82.373203920449143</v>
+      </c>
+      <c r="H19">
+        <v>68.108893675550831</v>
+      </c>
+      <c r="I19">
+        <v>55.270893346828259</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    97.2861356932153, 95.9587020648968, 94.8082595870206, 90.9439528023599, 82.3732039204491, 68.1088936755508, 55.2708933468283,</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>95.752212389380531</v>
+      </c>
+      <c r="D20">
+        <v>94.454796321767489</v>
+      </c>
+      <c r="E20">
+        <v>95.722713864306783</v>
+      </c>
+      <c r="F20">
+        <v>92.567755776434041</v>
+      </c>
+      <c r="G20">
+        <v>91.715758786840723</v>
+      </c>
+      <c r="H20">
+        <v>57.76667618231992</v>
+      </c>
+      <c r="I20">
+        <v>50.432962222856602</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.7522123893805, 94.4547963217675, 95.7227138643068, 92.567755776434, 91.7157587868407, 57.7666761823199, 50.4329622228566,</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>89.705706796771594</v>
+      </c>
+      <c r="D21">
+        <v>73.193799254318805</v>
+      </c>
+      <c r="E21">
+        <v>83.963183072517921</v>
+      </c>
+      <c r="F21">
+        <v>82.277441846382757</v>
+      </c>
+      <c r="G21">
+        <v>79.451292831252857</v>
+      </c>
+      <c r="H21">
+        <v>64.202718016591831</v>
+      </c>
+      <c r="I21">
+        <v>37.370046453689049</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    89.7057067967716, 73.1937992543188, 83.9631830725179, 82.2774418463828, 79.4512928312529, 64.2027180165918, 37.370046453689,</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>94.277286135693217</v>
+      </c>
+      <c r="D22">
+        <v>93.304007820136846</v>
+      </c>
+      <c r="E22">
+        <v>93.628318584070797</v>
+      </c>
+      <c r="F22">
+        <v>87.177051704599521</v>
+      </c>
+      <c r="G22">
+        <v>91.362987569096617</v>
+      </c>
+      <c r="H22">
+        <v>80.470678812100445</v>
+      </c>
+      <c r="I22">
+        <v>51.366101782887391</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.2772861356932, 93.3040078201368, 93.6283185840708, 87.1770517045995, 91.3629875690966, 80.4706788121004, 51.3661017828874,</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>92.212389380530979</v>
+      </c>
+      <c r="D23">
+        <v>92.212389380530979</v>
+      </c>
+      <c r="E23">
+        <v>87.994100294985259</v>
+      </c>
+      <c r="F23">
+        <v>85.044247787610615</v>
+      </c>
+      <c r="G23">
+        <v>75.852991807887605</v>
+      </c>
+      <c r="H23">
+        <v>42.069222052093878</v>
+      </c>
+      <c r="I23">
+        <v>36.140364536025388</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.212389380531, 92.212389380531, 87.9941002949853, 85.0442477876106, 75.8529918078876, 42.0692220520939, 36.1403645360254,</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>94.21828908554572</v>
+      </c>
+      <c r="D24">
+        <v>93.893805309734518</v>
+      </c>
+      <c r="E24">
+        <v>91.415929203539832</v>
+      </c>
+      <c r="F24">
+        <v>90.678466076696168</v>
+      </c>
+      <c r="G24">
+        <v>84.808951634529706</v>
+      </c>
+      <c r="H24">
+        <v>52.233756347373237</v>
+      </c>
+      <c r="I24">
+        <v>39.765741918182677</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.2182890855457, 93.8938053097345, 91.4159292035398, 90.6784660766962, 84.8089516345297, 52.2337563473732, 39.7657419181827,</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>93.598820058997049</v>
+      </c>
+      <c r="D25">
+        <v>92.56637168141593</v>
+      </c>
+      <c r="E25">
+        <v>91.91740412979351</v>
+      </c>
+      <c r="F25">
+        <v>89.498525073746322</v>
+      </c>
+      <c r="G25">
+        <v>84.778761061946895</v>
+      </c>
+      <c r="H25">
+        <v>60.793086445384468</v>
+      </c>
+      <c r="I25">
+        <v>42.311784704019928</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.598820058997, 92.5663716814159, 91.9174041297935, 89.4985250737463, 84.7787610619469, 60.7930864453845, 42.3117847040199,</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>90.560471976401175</v>
+      </c>
+      <c r="D26">
+        <v>91.622418879056042</v>
+      </c>
+      <c r="E26">
+        <v>90.383480825958699</v>
+      </c>
+      <c r="F26">
+        <v>87.817109144542769</v>
+      </c>
+      <c r="G26">
+        <v>87.197640117994098</v>
+      </c>
+      <c r="H26">
+        <v>75.804721494130575</v>
+      </c>
+      <c r="I26">
+        <v>61.721727696606379</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    90.5604719764012, 91.622418879056, 90.3834808259587, 87.8171091445428, 87.1976401179941, 75.8047214941306, 61.7217276966064,</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>84.306784660766965</v>
+      </c>
+      <c r="D27">
+        <v>84.513274336283189</v>
+      </c>
+      <c r="E27">
+        <v>84.513274336283189</v>
+      </c>
+      <c r="F27">
+        <v>83.244837758112084</v>
+      </c>
+      <c r="G27">
+        <v>80.827169785205754</v>
+      </c>
+      <c r="H27">
+        <v>68.865647626709574</v>
+      </c>
+      <c r="I27">
+        <v>55.585861469389883</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    84.306784660767, 84.5132743362832, 84.5132743362832, 83.2448377581121, 80.8271697852058, 68.8656476267096, 55.5858614693899,</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>85.486725663716811</v>
+      </c>
+      <c r="D28">
+        <v>86.106194690265482</v>
+      </c>
+      <c r="E28">
+        <v>84.837758112094406</v>
+      </c>
+      <c r="F28">
+        <v>81.799410029498517</v>
+      </c>
+      <c r="G28">
+        <v>71.648024636891321</v>
+      </c>
+      <c r="H28">
+        <v>60.52362044654366</v>
+      </c>
+      <c r="I28">
+        <v>43.007465462504001</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    85.4867256637168, 86.1061946902655, 84.8377581120944, 81.7994100294985, 71.6480246368913, 60.5236204465437, 43.007465462504,</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>99.174041297935105</v>
+      </c>
+      <c r="D29">
+        <v>98.731563421828909</v>
+      </c>
+      <c r="E29">
+        <v>98.34808259587021</v>
+      </c>
+      <c r="F29">
+        <v>98.023598820058993</v>
+      </c>
+      <c r="G29">
+        <v>97.669616519174042</v>
+      </c>
+      <c r="H29">
+        <v>83.840171627782254</v>
+      </c>
+      <c r="I29">
+        <v>63.690343342070427</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    99.1740412979351, 98.7315634218289, 98.3480825958702, 98.023598820059, 97.669616519174, 83.8401716277823, 63.6903433420704,</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>99.675516224188783</v>
+      </c>
+      <c r="D30">
+        <v>99.469026548672559</v>
+      </c>
+      <c r="E30">
+        <v>99.321533923303832</v>
+      </c>
+      <c r="F30">
+        <v>99.35103244837758</v>
+      </c>
+      <c r="G30">
+        <v>98.34808259587021</v>
+      </c>
+      <c r="H30">
+        <v>85.406880682358846</v>
+      </c>
+      <c r="I30">
+        <v>56.710611683492083</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    99.6755162241888, 99.4690265486726, 99.3215339233038, 99.3510324483776, 98.3480825958702, 85.4068806823588, 56.7106116834921,</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>95.368731563421832</v>
+      </c>
+      <c r="D31">
+        <v>96.991150442477874</v>
+      </c>
+      <c r="E31">
+        <v>97.994100294985259</v>
+      </c>
+      <c r="F31">
+        <v>98.289085545722713</v>
+      </c>
+      <c r="G31">
+        <v>99.263055908788132</v>
+      </c>
+      <c r="H31">
+        <v>95.052206333964833</v>
+      </c>
+      <c r="I31">
+        <v>79.461846555766058</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.3687315634218, 96.9911504424779, 97.9941002949853, 98.2890855457227, 99.2630559087881, 95.0522063339648, 79.4618465557661,</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C2:C31)</f>
+        <v>93.614587208078504</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <v>92.683728521296331</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>92.067301620256245</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>89.309630706147985</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>84.609852449703993</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>64.47091526166605</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>50.663073786682112</v>
       </c>
     </row>
   </sheetData>

--- a/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/append_pcc_dmrc_bs.xlsx
+++ b/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/append_pcc_dmrc_bs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PCC_subnetwork_separate_node_index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_residual\results_cnn_subnetwork_evaluation\PCC_subnetwork_separate_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1D0F95-EF3C-4222-A59B-BD076D1D882B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F54FB8-6FBB-400D-BD3F-85F9C692653B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="633" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="11" r:id="rId1"/>
@@ -152,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,7 +256,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -536,11 +536,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113F3A2F-6837-41B1-B2B8-CB791D6423A8}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
@@ -569,7 +569,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -599,7 +599,7 @@
         <v xml:space="preserve">    89.882005899705, 88.259587020649, 85.0147492625369, 83.9823008849557, 79.9161757454649, 60.1596899627159, 46.1367312866028,</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -629,7 +629,7 @@
         <v xml:space="preserve">    93.716814159292, 93.0088495575221, 90.265659737541, 84.5726174101852, 77.059663145875, 58.0170243687229, 49.6060519554667,</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -659,7 +659,7 @@
         <v xml:space="preserve">    88.6430678466077, 86.047197640118, 86.9321533923304, 84.750473620014, 75.5824877377832, 64.7047119784773, 46.2978918502755,</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -689,7 +689,7 @@
         <v xml:space="preserve">    91.7699115044248, 91.0326213894584, 90.0001730118773, 84.6645732229518, 68.5453161359527, 52.002785491224, 41.0719815915363,</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -719,7 +719,7 @@
         <v xml:space="preserve">    95.575221238938, 93.6283185840708, 89.2920353982301, 77.7212605645377, 71.440842913866, 45.493992162562, 42.9508905786382,</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -749,7 +749,7 @@
         <v xml:space="preserve">    93.2448377581121, 86.6666666666667, 90.5904895371067, 83.6661216792533, 65.4562755733181, 40.1422157631121, 32.6223410237113,</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -779,7 +779,7 @@
         <v xml:space="preserve">    93.5103244837758, 91.0914454277286, 90.353982300885, 82.7339336845475, 82.667151099923, 70.8270832792671, 62.5409389354579,</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -809,7 +809,7 @@
         <v xml:space="preserve">    95.929203539823, 95.8407079646018, 92.9510635905155, 89.3267242796218, 83.1382624417166, 64.8985717869532, 52.3248471007535,</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -839,7 +839,7 @@
         <v xml:space="preserve">    98.4955752212389, 97.6991150442478, 95.6047197640118, 89.8835630066004, 84.8431214802896, 66.9886417702575, 57.8510194724868,</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -869,7 +869,7 @@
         <v xml:space="preserve">    95.929203539823, 96.047197640118, 94.9855967612176, 91.3888528447478, 82.7304734470021, 69.5736987344181, 45.2675196152216,</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -899,7 +899,7 @@
         <v xml:space="preserve">    91.3867767022206, 90.6784660766962, 89.9115044247788, 84.8082595870206, 79.0079498957603, 63.0410297666935, 39.128366162337,</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -929,7 +929,7 @@
         <v xml:space="preserve">    95.6047197640118, 91.0029498525074, 92.5663716814159, 92.0945682921133, 85.4054965873407, 63.0503724080658, 48.4126160260902,</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -959,7 +959,7 @@
         <v xml:space="preserve">    92.2713864306785, 89.4100294985251, 84.7492625368731, 82.3305564927032, 79.8885803510411, 63.4226074620023, 44.916738034066,</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -989,7 +989,7 @@
         <v xml:space="preserve">    91.4159292035398, 88.7315634218289, 83.5491656502219, 77.4436630074655, 69.3148729660291, 46.5108694711892, 39.6551873286101,</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v xml:space="preserve">    93.834808259587, 88.9097656554122, 88.8523257121601, 82.5198314864315, 66.6441751226222, 49.1082967845743, 42.153046306629,</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v xml:space="preserve">    95.3099075251516, 94.6017699115044, 94.4542772861357, 79.4159984082907, 80.7799375427123, 58.4787930691442, 47.9011064109551,</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v xml:space="preserve">    92.5368731563422, 90.7971522245002, 85.2819661069732, 76.8019619546882, 65.1052344743467, 57.2209102154863, 47.9607955086117,</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v xml:space="preserve">    96.2536873156342, 94.3657817109144, 93.598820058997, 84.4561804167856, 76.7101791537989, 61.9887715291655, 42.9918078876115,</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v xml:space="preserve">    93.3333333333333, 95.8113824514053, 93.6293566553344, 82.155381966972, 77.4613102189465, 55.4239223522695, 46.1598283722178,</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v xml:space="preserve">    88.8514606527738, 80.9774306006107, 80.6248323947439, 74.2562651926055, 72.2926668915821, 56.0071453905311, 45.599010372062,</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v xml:space="preserve">    91.8879056047198, 93.1268436578171, 85.3709807178263, 87.3850119810725, 82.3987231723458, 64.0866270469468, 48.4355400998278,</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v xml:space="preserve">    91.5339233038348, 91.2389380530973, 85.3097345132743, 74.2297078694452, 58.9976556890631, 46.174361369908, 30.2494831270167,</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v xml:space="preserve">    94.100467997128, 93.834808259587, 92.2418879056047, 80.081488594192, 68.7887438472651, 56.2158842204517, 36.8913225892957,</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v xml:space="preserve">    93.8938053097345, 90.6194690265487, 89.1740412979351, 82.8042630126558, 76.1191705810604, 55.734911201654, 43.5670723795189,</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v xml:space="preserve">    89.6165191740413, 89.4102025104023, 90.2064896755162, 84.1594650472755, 72.9238142198462, 61.3137656900146, 48.4759383731693,</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v xml:space="preserve">    84.306784660767, 83.1563421828909, 83.2153392330383, 83.1270166696944, 74.5533265858701, 58.8646960613846, 47.1226394691996,</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v xml:space="preserve">    85.929203539823, 82.0648967551623, 80.6784660766962, 77.2274846668224, 65.5866400228376, 63.3922438775422, 45.1615498403966,</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v xml:space="preserve">    99.2330383480826, 98.8790560471976, 98.023598820059, 92.3008849557522, 83.7197553612055, 70.2167838822135, 67.4111367745396,</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v xml:space="preserve">    99.3510324483776, 98.2890855457227, 98.4955752212389, 88.377581120944, 82.8922395522453, 78.1965241913857, 74.1182017145477,</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v xml:space="preserve">    95.693215339233, 94.5722713864307, 95.7522123893805, 97.0501474926254, 97.3182293964481, 90.8263912317581, 69.2454086973071,</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -1512,13 +1512,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F48D65-54D9-418A-804E-52605BF63D6D}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:I32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1545,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1577,7 +1575,7 @@
         <v xml:space="preserve">    87.6401179941003, 89.2920353982301, 89.76401179941, 85.6342182890856, 82.508412702532, 59.483300028547, 49.5873666727221,</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1607,7 +1605,7 @@
         <v xml:space="preserve">    94.1592920353982, 94.3657817109145, 91.5634218289086, 86.8731563421829, 78.4500730975181, 53.8970925354026, 48.7001617661052,</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1637,7 +1635,7 @@
         <v xml:space="preserve">    88.8790560471976, 88.6725663716814, 88.9970501474926, 84.7494355487504, 79.5054455488369, 55.9215910172233, 53.5580757619011,</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1667,7 +1665,7 @@
         <v xml:space="preserve">    92.6843657817109, 91.3864306784661, 89.2035398230089, 85.1329163747091, 78.5796589935899, 52.1816797723164, 44.1688076886478,</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -1697,7 +1695,7 @@
         <v xml:space="preserve">    95.8702064896755, 95.7522123893805, 90.7669616519174, 89.3217069351811, 77.293748215815, 46.5264405401431, 43.9859341343783,</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1727,7 +1725,7 @@
         <v xml:space="preserve">    95.3982300884956, 93.2743362831858, 92.4483775811209, 85.3400980977344, 72.9048694192856, 48.2325106618569, 37.6396854644071,</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1757,7 +1755,7 @@
         <v xml:space="preserve">    93.4808259587021, 90.9734513274336, 90.23598820059, 87.5221238938053, 85.6357753959809, 67.7254128495921, 61.513853926072,</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1787,7 +1785,7 @@
         <v xml:space="preserve">    97.1681415929203, 96.6961651917404, 94.4837758112094, 93.781347589512, 86.1703820967309, 63.5806538118842, 54.351767748856,</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1817,7 +1815,7 @@
         <v xml:space="preserve">    98.5545722713864, 98.4070796460177, 96.7256637168142, 94.4837758112094, 87.0558568845751, 69.0646112855648, 57.3670187458369,</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -1847,7 +1845,7 @@
         <v xml:space="preserve">    94.6017699115044, 94.5722713864307, 92.8318584070797, 86.8436578171091, 81.600532876582, 60.7300236161212, 43.9059161411431,</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -1877,7 +1875,7 @@
         <v xml:space="preserve">    92.6550402685144, 91.3274336283186, 88.9383991210997, 86.2241887905605, 80.9744893986972, 55.8254829194024, 45.6362944316127,</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1907,7 +1905,7 @@
         <v xml:space="preserve">    95.693215339233, 93.6873156342183, 93.3923303834808, 90.8259587020649, 85.3397520739799, 58.1905552816201, 49.116601354683,</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1937,7 +1935,7 @@
         <v xml:space="preserve">    91.976401179941, 91.0324483775811, 87.0796460176991, 82.4188790560472, 77.4639919030441, 68.5432399934255, 47.190373619149,</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1967,7 +1965,7 @@
         <v xml:space="preserve">    89.5281966106973, 89.4103755222796, 87.2866547288471, 84.4358515212069, 78.9140909523439, 56.0914886806979, 41.2456855163107,</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1997,7 +1995,7 @@
         <v xml:space="preserve">    93.4513274336283, 87.4336283185841, 88.0530973451327, 77.8764522184448, 70.0186852827447, 50.579589788839, 39.3253401846037,</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -2027,7 +2025,7 @@
         <v xml:space="preserve">    95.575221238938, 94.4837758112094, 94.3362831858407, 86.0176991150443, 83.5696675576778, 64.7177743752109, 47.5755845638803,</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -2057,7 +2055,7 @@
         <v xml:space="preserve">    93.8349812714643, 91.3276066401959, 87.6713466379467, 83.0404242251231, 71.7525238107596, 59.6949800603811, 56.0975440964022,</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -2087,7 +2085,7 @@
         <v xml:space="preserve">    95.9882005899705, 94.7197640117994, 93.2448377581121, 89.3512054602548, 76.9413230218255, 68.2893450635386, 54.0007266498845,</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -2117,7 +2115,7 @@
         <v xml:space="preserve">    94.9557522123894, 96.34252891461, 94.6017699115044, 93.8944973572436, 90.3852109447314, 62.4949177761053, 50.3831348022042,</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -2147,7 +2145,7 @@
         <v xml:space="preserve">    86.1367312866028, 82.4792602012128, 80.5923926677566, 80.0346888813917, 74.6154378498084, 62.899592557029, 51.648803190339,</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -2177,7 +2175,7 @@
         <v xml:space="preserve">    92.7143833424165, 91.5930933658596, 88.6031021029594, 92.5663716814159, 87.8812965510082, 70.9504407477573, 44.809816693916,</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -2207,7 +2205,7 @@
         <v xml:space="preserve">    92.7138643067847, 92.4188790560472, 89.2035398230089, 80.4424778761062, 68.2323376499797, 45.4554970198704, 37.7971262727186,</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -2237,7 +2235,7 @@
         <v xml:space="preserve">    94.3362831858407, 95.3687315634218, 93.0973451327434, 86.9616519174041, 76.7341412988002, 49.7015545117172, 36.8286922897257,</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -2267,7 +2265,7 @@
         <v xml:space="preserve">    93.4218289085546, 92.9793510324484, 92.2418879056047, 88.6725663716814, 79.2387477400324, 58.0203981003296, 53.2251144041038,</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -2297,7 +2295,7 @@
         <v xml:space="preserve">    88.4955752212389, 91.0914454277286, 91.5929203539823, 88.2300884955752, 86.9099213661018, 63.932559970242, 54.1266792965337,</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -2327,7 +2325,7 @@
         <v xml:space="preserve">    84.5427728613569, 83.8643067846608, 84.424778761062, 82.6550402685144, 75.301343437227, 69.3986972205642, 47.0741096376266,</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -2357,7 +2355,7 @@
         <v xml:space="preserve">    87.7286135693215, 85.2507374631269, 84.9852507374631, 80.265659737541, 75.4311888511146, 52.899592557029, 46.0671805119421,</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -2387,7 +2385,7 @@
         <v xml:space="preserve">    98.9380530973451, 98.2005899705015, 98.141592920354, 97.7286135693215, 95.1624148997829, 77.3056860353463, 70.5412676580247,</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -2417,7 +2415,7 @@
         <v xml:space="preserve">    99.5280235988201, 99.0560471976401, 99.0560471976401, 98.6725663716814, 98.1710914454277, 84.4303151411344, 62.9405098660023,</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -2447,7 +2445,7 @@
         <v xml:space="preserve">    94.9852507374631, 97.1386430678466, 97.3453057552401, 99.1445427728614, 98.8524987240374, 92.702012993192, 75.5792870180538,</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -2490,13 +2488,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7966138E-59CE-40BE-B64B-77ED25B4524B}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:I32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2525,7 +2521,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2555,7 +2551,7 @@
         <v xml:space="preserve">    90.6784660766962, 89.7935103244838, 89.4395280235988, 86.8436578171091, 79.0025865275651, 62.8371352693362, 49.296533707039,</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -2585,7 +2581,7 @@
         <v xml:space="preserve">    94.1002949852507, 93.8938053097345, 91.6225918909333, 90.0589970501475, 77.6317269180529, 56.670818951721, 42.2189638318671,</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -2615,7 +2611,7 @@
         <v xml:space="preserve">    89.8230088495575, 88.2300884955752, 88.0825958702065, 86.0176991150443, 81.2687826019256, 67.2015328852326, 45.1719305530325,</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -2645,7 +2641,7 @@
         <v xml:space="preserve">    91.7109144542773, 91.9469026548673, 90.2066626873935, 86.5783441033227, 76.7122552963261, 54.6930336767619, 41.1351309267381,</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -2675,7 +2671,7 @@
         <v xml:space="preserve">    96.3716814159292, 95.7522123893805, 92.5368731563422, 93.5398230088496, 77.2071557712437, 52.8039169889013, 40.3289820846201,</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -2705,7 +2701,7 @@
         <v xml:space="preserve">    93.9823008849557, 85.0737463126844, 85.3392330383481, 78.6729123954359, 61.1745776347546, 45.2333497694617, 32.8645576518828,</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2735,7 +2731,7 @@
         <v xml:space="preserve">    90.8259587020649, 92.8908554572271, 91.1504424778761, 87.3156342182891, 85.6359484078582, 67.4368290383135, 60.028027924117,</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -2765,7 +2761,7 @@
         <v xml:space="preserve">    97.3746312684366, 97.2566371681416, 96.9616519174041, 89.5350305798493, 90.8932603223211, 67.6717791676399, 44.6657843060926,</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -2795,7 +2791,7 @@
         <v xml:space="preserve">    97.905604719764, 98.2890855457227, 95.929203539823, 93.4808259587021, 88.7612349587799, 75.8548949385375, 51.0288151281585,</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2825,7 +2821,7 @@
         <v xml:space="preserve">    94.7787610619469, 95.0147492625369, 93.1858407079646, 91.3867767022206, 83.7801365063712, 64.2946738293584, 46.6430505454199,</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2855,7 +2851,7 @@
         <v xml:space="preserve">    90.23598820059, 90.7374631268437, 88.8790560471976, 83.834808259587, 79.6175572453049, 55.8275590619296, 45.3230564278238,</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -2885,7 +2881,7 @@
         <v xml:space="preserve">    96.5790361508318, 95.1917404129794, 90.353982300885, 89.76401179941, 81.5094421232018, 63.3362745352468, 49.6829557349112,</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -2915,7 +2911,7 @@
         <v xml:space="preserve">    92.3893805309735, 90.7964601769911, 86.9321533923304, 84.6312684365782, 80.1474926253687, 62.4821148971877, 53.2235572972085,</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -2945,7 +2941,7 @@
         <v xml:space="preserve">    94.0412979351032, 87.2863087050926, 91.3571051652696, 88.7960968520489, 77.4067249716693, 50.4704192942845, 38.3601934272788,</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -2975,7 +2971,7 @@
         <v xml:space="preserve">    92.9205269941781, 89.2035398230089, 90.3244837758112, 85.6935613629876, 68.38415557228, 53.1893874514486, 46.0485817351361,</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -3005,7 +3001,7 @@
         <v xml:space="preserve">    96.3421828908555, 95.3392330383481, 94.2772861356932, 91.7699115044248, 78.4077716935268, 64.9239180269725, 43.4128322909368,</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -3035,7 +3031,7 @@
         <v xml:space="preserve">    93.9823008849557, 91.0647150926911, 88.3805223228575, 82.9860984956617, 71.875362243618, 58.9851123279613, 53.1447503871141,</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -3065,7 +3061,7 @@
         <v xml:space="preserve">    97.0796460176991, 96.4896755162242, 92.5073746312684, 92.3598820058997, 79.8937707073591, 62.3981176307754, 46.3178747220997,</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -3095,7 +3091,7 @@
         <v xml:space="preserve">    94.1002949852507, 96.1061946902655, 92.9793510324484, 92.0143772870008, 87.5354458083548, 69.2393532816028, 43.7784063875985,</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -3125,7 +3121,7 @@
         <v xml:space="preserve">    83.8351542833416, 84.6902654867257, 80.1195512071904, 77.3924514917949, 73.3585930674141, 67.0956496163462, 43.6983883943633,</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -3155,7 +3151,7 @@
         <v xml:space="preserve">    92.4190520679245, 94.2772861356932, 92.4483775811209, 92.6260607790725, 87.5564667514425, 65.7999636675058, 50.969126030502,</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -3185,7 +3181,7 @@
         <v xml:space="preserve">    91.5929203539823, 91.4454277286136, 89.7935103244838, 81.4750992655646, 75.6666580160728, 45.8125935345462, 34.8519450860302,</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -3215,7 +3211,7 @@
         <v xml:space="preserve">    94.3952802359882, 93.9233038348083, 92.006072716892, 90.4728414605663, 80.1204162665767, 53.0170676216922, 33.8793588179828,</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -3245,7 +3241,7 @@
         <v xml:space="preserve">    95.693215339233, 92.1828908554572, 90.4721494130572, 87.787610619469, 78.3582902966289, 57.8641683751589, 48.9887455773839,</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -3275,7 +3271,7 @@
         <v xml:space="preserve">    90.7964601769911, 89.0560471976401, 89.646017699115, 89.7050147492625, 86.0482357113816, 62.6320296888381, 56.3618197389251,</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -3305,7 +3301,7 @@
         <v xml:space="preserve">    84.3657817109145, 84.0412979351032, 84.070796460177, 81.3866036903433, 80.325002811443, 59.2666026522721, 51.0307182588085,</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -3335,7 +3331,7 @@
         <v xml:space="preserve">    86.6076696165192, 84.1002949852507, 83.0088495575221, 81.2687826019256, 74.8099897057933, 55.0894038875769, 45.8608638483032,</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -3365,7 +3361,7 @@
         <v xml:space="preserve">    99.1740412979351, 98.7020648967552, 98.0530973451327, 98.3185840707965, 94.4252977966937, 86.1158833553924, 65.2663950380194,</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -3395,7 +3391,7 @@
         <v xml:space="preserve">    99.6755162241888, 99.2625368731563, 99.1740412979351, 98.9970501474926, 97.7286135693215, 83.3829012361699, 57.051877611398,</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -3425,7 +3421,7 @@
         <v xml:space="preserve">    95.4867256637168, 97.7581120943953, 99.0855457227139, 98.6135693215339, 99.0265486725664, 86.5772195261205, 72.3104871149404,</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -3468,13 +3464,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99164D4E-3C3B-4A59-BDCE-32789F000227}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:I32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3503,7 +3497,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3533,7 +3527,7 @@
         <v xml:space="preserve">    86.4601769911504, 88.2890855457227, 85.0449398351197, 88.2300884955752, 82.132544399173, 60.6904904021661, 46.5497106376353,</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -3563,7 +3557,7 @@
         <v xml:space="preserve">    94.7787610619469, 93.9823008849557, 94.2774591475705, 93.3038348082596, 88.5861469389874, 54.3357641502089, 47.1271377780085,</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -3593,7 +3587,7 @@
         <v xml:space="preserve">    88.8790560471976, 88.6430678466077, 87.787610619469, 86.7551622418879, 81.3274336283186, 54.2802273376067, 38.8076886478257,</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -3623,7 +3617,7 @@
         <v xml:space="preserve">    92.330383480826, 92.9203539823009, 91.5929203539823, 89.1445427728614, 82.5167172726408, 56.0480626995043, 39.4407391067397,</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -3653,7 +3647,7 @@
         <v xml:space="preserve">    96.1946902654867, 95.0442477876106, 95.6047197640118, 93.0973451327434, 72.5782229950086, 46.4658863831002, 38.9151290236075,</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -3683,7 +3677,7 @@
         <v xml:space="preserve">    94.3952802359882, 90.0884955752212, 94.306784660767, 91.3569321533923, 78.7771520514883, 37.0240226991583, 33.6773674512755,</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3713,7 +3707,7 @@
         <v xml:space="preserve">    92.8023598820059, 93.1858407079646, 92.8908554572271, 90.9144542772861, 83.9640481319043, 66.4326681026652, 60.689106307148,</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -3743,7 +3737,7 @@
         <v xml:space="preserve">    96.9911504424779, 96.7256637168142, 96.7551622418879, 96.9031739028884, 91.2456855163107, 54.4992603742247, 54.0034948399208,</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -3773,7 +3767,7 @@
         <v xml:space="preserve">    98.259587020649, 98.4070796460177, 98.5250737463127, 96.1356932153392, 93.9529753717593, 68.2234275383005, 56.5643301412642,</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -3803,7 +3797,7 @@
         <v xml:space="preserve">    95.3097345132743, 94.188790560472, 94.4542772861357, 92.3893805309735, 79.8736148236576, 58.4905578767982, 42.084966132925,</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -3833,7 +3827,7 @@
         <v xml:space="preserve">    90.6194690265487, 90.4424778761062, 90.2064896755162, 88.6725663716814, 81.1214629884342, 53.09059766953, 48.7017188730006,</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -3863,7 +3857,7 @@
         <v xml:space="preserve">    95.2802359882006, 95.6047197640118, 93.4515004455056, 92.3893805309735, 87.7289595930761, 62.1219906746598, 43.6381802610749,</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -3893,7 +3887,7 @@
         <v xml:space="preserve">    92.9793510324484, 91.7994100294985, 91.3569321533923, 90.6194690265487, 82.7454389743856, 62.4705231014109, 53.6446682064724,</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -3923,7 +3917,7 @@
         <v xml:space="preserve">    92.1830638673345, 91.6225918909333, 93.2155122449156, 91.535999446362, 80.4542426837602, 53.9969203885847, 40.0709348696788,</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -3953,7 +3947,7 @@
         <v xml:space="preserve">    93.716814159292, 92.6552132803917, 93.0678466076696, 87.9654668292978, 76.6662341369735, 44.3598993070874, 41.6001868528274,</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -3983,7 +3977,7 @@
         <v xml:space="preserve">    95.1917404129794, 95.6047197640118, 96.283185840708, 96.0176991150443, 89.2085571674495, 59.9688578620922, 41.1471552522081,</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -4013,7 +4007,7 @@
         <v xml:space="preserve">    92.9793510324484, 93.1277087172034, 92.3895535428507, 91.8889436759834, 77.3786105416137, 59.9205875483352, 46.6183963529096,</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -4043,7 +4037,7 @@
         <v xml:space="preserve">    96.9026548672566, 96.9616519174041, 96.283185840708, 95.7817109144543, 89.6165191740413, 65.0212372079343, 54.4126679296534,</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -4073,7 +4067,7 @@
         <v xml:space="preserve">    94.5722713864307, 94.0117994100295, 91.5639408645403, 91.8884246403516, 86.4526509744894, 62.1017482850198, 41.6793397866764,</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -4103,7 +4097,7 @@
         <v xml:space="preserve">    88.6135693215339, 88.3187570826737, 89.3805309734513, 86.2293791468784, 80.3628059066255, 62.9410289016341, 43.7768492807031,</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -4133,7 +4127,7 @@
         <v xml:space="preserve">    93.5398230088496, 93.6873156342183, 94.3362831858407, 94.1611951660481, 90.2411785569079, 65.1928649901816, 49.3397866763553,</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -4163,7 +4157,7 @@
         <v xml:space="preserve">    92.6843657817109, 93.4513274336283, 90.5309734513274, 89.5280235988201, 78.4747272900285, 37.6491146117181, 32.4370453031601,</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -4193,7 +4187,7 @@
         <v xml:space="preserve">    94.4542772861357, 93.9236498585628, 92.8908554572271, 93.2448377581121, 83.9233038348083, 47.4306871166706, 37.4081090666874,</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -4223,7 +4217,7 @@
         <v xml:space="preserve">    95.0147492625369, 93.4218289085546, 91.622418879056, 90.0294985250737, 82.6296940284951, 51.9311585740361, 37.9768856131973,</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -4253,7 +4247,7 @@
         <v xml:space="preserve">    89.1150442477876, 89.3215339233038, 89.6755162241888, 90.5604719764012, 83.1860137198419, 60.6087422901582, 52.9444891391794,</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -4283,7 +4277,7 @@
         <v xml:space="preserve">    84.7787610619469, 84.0412979351032, 84.2477876106195, 81.2855647540204, 78.483550895769, 63.8522824591908, 50.3108158375072,</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -4313,7 +4307,7 @@
         <v xml:space="preserve">    85.7522123893805, 86.4896755162242, 84.306784660767, 83.2743362831858, 76.696511215495, 55.1711519995848, 41.7697384925475,</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -4343,7 +4337,7 @@
         <v xml:space="preserve">    99.1740412979351, 98.9380530973451, 98.7610619469027, 97.9941002949853, 97.9646017699115, 75.6544606787256, 61.9703457642367,</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -4373,7 +4367,7 @@
         <v xml:space="preserve">    99.7050147492625, 99.646017699115, 99.9115044247788, 99.5285426344519, 98.4957482331162, 75.5383697090805, 60.9781226481198,</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -4403,7 +4397,7 @@
         <v xml:space="preserve">    95.693215339233, 94.5722713864307, 96.7256637168142, 97.7296516405851, 99.3510324483776, 86.3419233730396, 51.3538179396015,</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -4446,13 +4440,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAD918A-EF9C-4A0D-91E1-2603CD3B7B34}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:I32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4481,7 +4473,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4511,7 +4503,7 @@
         <v xml:space="preserve">    89.7345132743363, 89.2037128348861, 85.1622418879056, 84.6019429233817, 82.9212190416872, 60.1227519269198, 45.7825759738406,</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -4541,7 +4533,7 @@
         <v xml:space="preserve">    93.5988200589971, 93.5988200589971, 93.1858407079646, 92.271732454433, 84.9873268799903, 54.9640567824981, 50.8283808683466,</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -4571,7 +4563,7 @@
         <v xml:space="preserve">    88.8495575221239, 89.1740412979351, 88.7020648967552, 87.0206489675516, 82.3008849557522, 58.222129949221, 42.2007110788156,</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -4601,7 +4593,7 @@
         <v xml:space="preserve">    92.6843657817109, 91.8585800915233, 92.1533923303835, 90.0294985250737, 71.1468092284535, 57.4933174162406, 41.8698258635455,</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -4631,7 +4623,7 @@
         <v xml:space="preserve">    95.811209439528, 95.0737463126844, 94.6902654867257, 92.7143833424165, 77.2425367001445, 48.3206602133236, 37.8989437624893,</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -4661,7 +4653,7 @@
         <v xml:space="preserve">    92.8318584070797, 93.0383480825959, 91.2389380530974, 84.1329942300539, 74.7420825439666, 39.1349406136731, 37.5587159058469,</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -4691,7 +4683,7 @@
         <v xml:space="preserve">    91.858407079646, 92.9793510324484, 91.7699115044248, 88.5250737463127, 84.7570480713501, 68.9185027552141, 55.0185555238367,</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -4721,7 +4713,7 @@
         <v xml:space="preserve">    97.6106194690265, 94.8672566371681, 95.7227138643068, 96.283185840708, 87.0610472408931, 68.6950579157259, 52.4468204742256,</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -4751,7 +4743,7 @@
         <v xml:space="preserve">    98.4365781710914, 97.905604719764, 97.4926253687316, 96.1358662272165, 94.6907845223575, 72.7337606726702, 61.4272614815007,</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -4781,7 +4773,7 @@
         <v xml:space="preserve">    94.3362831858407, 96.6076696165192, 95.0442477876106, 93.5991660827516, 82.1222501924757, 63.1468265296413, 53.5110165312849,</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -4811,7 +4803,7 @@
         <v xml:space="preserve">    91.7407590031056, 90.7378091505982, 89.7643578231646, 89.1740412979351, 82.9912888519797, 51.2064983261101, 45.1693353748735,</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -4841,7 +4833,7 @@
         <v xml:space="preserve">    95.4867256637168, 94.9559252242667, 93.8938053097345, 93.3333333333333, 87.9454839574737, 55.343731347157, 46.058270400263,</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -4871,7 +4863,7 @@
         <v xml:space="preserve">    93.0383480825959, 92.8908554572271, 92.8613569321534, 90.6194690265487, 83.5436292701494, 52.1317658457253, 46.1206411820172,</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -4901,7 +4893,7 @@
         <v xml:space="preserve">    92.8320314189569, 90.265659737541, 90.5311464632047, 87.9678889955796, 80.5658353445964, 48.5800915232831, 41.4280400349484,</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -4931,7 +4923,7 @@
         <v xml:space="preserve">    93.8939783216118, 91.740412979351, 92.4483775811209, 85.4025553854272, 76.7792108928278, 62.3462140675958, 35.8921789980882,</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -4961,7 +4953,7 @@
         <v xml:space="preserve">    94.7197640117994, 95.929203539823, 96.047197640118, 96.0766961651917, 90.4719764011799, 61.8622998468845, 41.8924039135287,</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -4991,7 +4983,7 @@
         <v xml:space="preserve">    93.3630048702844, 92.7140373186619, 92.4195711035563, 90.5625481189284, 84.5869773959982, 66.4784297442019, 52.8615299440307,</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -5021,7 +5013,7 @@
         <v xml:space="preserve">    96.283185840708, 97.0501474926254, 97.1681415929204, 94.5427728613569, 91.6520904160071, 76.0346542790163, 53.1154248739176,</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -5051,7 +5043,7 @@
         <v xml:space="preserve">    94.0117994100295, 91.7109144542773, 92.4778761061947, 91.5670550783311, 83.5581622678397, 60.7156636303082, 46.2842239119716,</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -5081,7 +5073,7 @@
         <v xml:space="preserve">    90.3838268497132, 91.2096125399009, 88.9987802662653, 87.3159802420436, 72.6447460618171, 60.1942058322304, 39.6741321291707,</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -5111,7 +5103,7 @@
         <v xml:space="preserve">    93.3038348082596, 93.3333333333333, 93.6611043348126, 93.18739781486, 89.7390115831452, 71.3268280867482, 56.6286905596069,</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -5141,7 +5133,7 @@
         <v xml:space="preserve">    91.0619469026549, 92.7138643067847, 90.0589970501475, 89.4690265486726, 74.7479649477937, 51.1188678102752, 37.9175425392953,</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -5171,7 +5163,7 @@
         <v xml:space="preserve">    93.4513274336283, 93.8646528084153, 92.3598820058997, 93.0088495575221, 79.6178167631208, 58.8362356075745, 44.6083443628405,</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -5201,7 +5193,7 @@
         <v xml:space="preserve">    93.8938053097345, 93.3628318584071, 92.212389380531, 90.2654867256637, 83.0976911564979, 54.3264215088366, 36.1017828873952,</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -5231,7 +5223,7 @@
         <v xml:space="preserve">    88.8790560471976, 90.5014749262537, 90.8259587020649, 88.2890855457227, 85.4322269223782, 65.1111168781737, 49.0567392451492,</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -5261,7 +5253,7 @@
         <v xml:space="preserve">    85.2212389380531, 84.070796460177, 83.6873156342183, 84.070796460177, 82.5665446932932, 61.2129862715076, 50.410730196628,</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -5291,7 +5283,7 @@
         <v xml:space="preserve">    86.0766961651917, 84.0709694720543, 84.1002949852507, 83.2153392330383, 78.6730854073132, 64.1618007076186, 42.354864661459,</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -5321,7 +5313,7 @@
         <v xml:space="preserve">    99.2920353982301, 99.0265486725664, 98.7315634218289, 98.2005899705015, 97.4631268436578, 78.2872689210114, 58.4022353134543,</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -5351,7 +5343,7 @@
         <v xml:space="preserve">    99.882005899705, 99.9410029498525, 99.76401179941, 99.5875396845993, 98.879921106584, 78.0486855422625, 52.4711286429813,</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -5381,7 +5373,7 @@
         <v xml:space="preserve">    95.2212389380531, 94.5427728613569, 96.3126843657817, 97.4926253687316, 98.8200589970502, 87.5639062621649, 51.1776918485454,</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -5424,13 +5416,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17719799-93AF-4DE1-88F6-5FBA055867B2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:I32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5459,7 +5449,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -5489,7 +5479,7 @@
         <v xml:space="preserve">    90.7964601769911, 88.6729123954359, 84.9854237493404, 87.3156342182891, 84.3085147795396, 59.0127077223851, 52.1780465228938,</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -5519,7 +5509,7 @@
         <v xml:space="preserve">    94.424778761062, 94.0412979351032, 94.6017699115044, 91.1209439528024, 87.701883234284, 59.2533672436613, 46.8866512686096,</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -5549,7 +5539,7 @@
         <v xml:space="preserve">    89.2330383480826, 88.4365781710914, 88.5840707964602, 86.5505756970216, 84.070796460177, 61.2787307848684, 46.8010968953019,</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -5579,7 +5569,7 @@
         <v xml:space="preserve">    93.9233038348083, 92.9498525073746, 93.8053097345133, 88.1120943952802, 84.2774591475705, 64.0650870682272, 48.5319942214033,</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -5609,7 +5599,7 @@
         <v xml:space="preserve">    95.693215339233, 95.5162241887906, 95.6047197640118, 92.4188790560472, 76.9026548672566, 48.4738622306421, 35.4795456708103,</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -5639,7 +5629,7 @@
         <v xml:space="preserve">    94.8967551622419, 94.4837758112094, 93.6578171091445, 86.6963382036177, 77.2642496907413, 44.4779799133211, 36.6893312225884,</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -5669,7 +5659,7 @@
         <v xml:space="preserve">    92.4778761061947, 93.3333333333333, 92.5663716814159, 90.5309734513274, 85.553335236464, 67.2891634010675, 62.9880881322503,</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -5699,7 +5689,7 @@
         <v xml:space="preserve">    97.669616519174, 97.905604719764, 97.2566371681416, 96.7256637168142, 90.4887585532747, 72.5322883415947, 57.4504969766174,</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -5729,7 +5719,7 @@
         <v xml:space="preserve">    98.4660766961652, 98.8200589970502, 97.8171091445428, 96.6076696165192, 93.1271896815717, 74.58749643163, 60.6282061263506,</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -5759,7 +5749,7 @@
         <v xml:space="preserve">    95.4572271386431, 96.3716814159292, 94.5427728613569, 91.3274336283186, 82.038339432002, 60.1103815776953, 42.425280495506,</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -5789,7 +5779,7 @@
         <v xml:space="preserve">    90.5309734513274, 90.0886685870985, 89.1445427728614, 86.0766961651917, 82.4604884125295, 57.7803441206239, 45.6977136480419,</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -5819,7 +5809,7 @@
         <v xml:space="preserve">    95.6342182890856, 94.9557522123894, 93.3628318584071, 90.5014749262537, 85.4011712904091, 61.5080580281836, 47.4429709599564,</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -5849,7 +5839,7 @@
         <v xml:space="preserve">    93.4218289085546, 92.7728613569322, 91.3864306784661, 84.3668197821781, 81.3341810915319, 67.219093590775, 51.6515713803753,</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -5879,7 +5869,7 @@
         <v xml:space="preserve">    92.478049118072, 90.6220642047077, 92.360055017777, 86.9619979411587, 82.3621311603042, 57.5113971574149, 49.0043166463378,</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -5909,7 +5899,7 @@
         <v xml:space="preserve">    90.6784660766962, 91.0029498525074, 89.4985250737463, 83.9835119680966, 74.9885379631312, 47.1030891270686, 36.8486751615498,</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -5939,7 +5929,7 @@
         <v xml:space="preserve">    96.9321533923304, 95.7817109144543, 96.0766961651917, 92.4778761061947, 84.6902654867257, 65.6294604624607, 39.5228332425021,</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -5969,7 +5959,7 @@
         <v xml:space="preserve">    92.7728613569322, 92.6843657817109, 92.950717566761, 87.5814669677073, 74.4304881530117, 62.6020121281326, 56.9536933710499,</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -5999,7 +5989,7 @@
         <v xml:space="preserve">    96.283185840708, 96.7846607669617, 95.2509104750041, 92.0962984108859, 83.8365383783597, 67.3821572850976, 53.9821278730785,</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -6029,7 +6019,7 @@
         <v xml:space="preserve">    95.4277286135693, 95.5162241887906, 94.336456197718, 93.8658638915562, 85.7843925985519, 56.9457348246957, 48.4593292329518,</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -6059,7 +6049,7 @@
         <v xml:space="preserve">    86.8141592920354, 85.6345643128401, 84.7204560593085, 81.9538231299579, 77.8561233228661, 67.4570714279535, 36.8430522755387,</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -6089,7 +6079,7 @@
         <v xml:space="preserve">    93.7758112094395, 94.2772861356932, 93.4518464692601, 91.8318497564858, 92.0373013607384, 76.465453853407, 61.3796832152527,</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -6119,7 +6109,7 @@
         <v xml:space="preserve">    92.6253687315634, 91.7699115044248, 90.23598820059, 81.9793423818545, 76.1450358567116, 41.0022578049983, 35.1778129568595,</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -6149,7 +6139,7 @@
         <v xml:space="preserve">    94.5427728613569, 95.0442477876106, 95.1917404129794, 89.8230088495575, 83.9543594667774, 52.3239820413671, 36.2352615507055,</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -6179,7 +6169,7 @@
         <v xml:space="preserve">    94.4837758112094, 93.5103244837758, 91.2684365781711, 91.0029498525074, 83.5727817714686, 56.1392399588232, 38.27723423213,</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -6209,7 +6199,7 @@
         <v xml:space="preserve">    91.976401179941, 91.2389380530973, 92.212389380531, 87.9646017699115, 86.6961651917404, 70.0666960786858, 51.4192164292079,</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -6239,7 +6229,7 @@
         <v xml:space="preserve">    84.7197640117994, 84.1297935103245, 85.0147492625369, 82.8908554572271, 79.6513810673103, 68.3569062016107, 61.1548542807464,</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -6269,7 +6259,7 @@
         <v xml:space="preserve">    87.1681415929204, 85.7522123893805, 83.7169871711693, 79.2922084101073, 74.8638829055615, 60.9928286576873, 40.4676511042483,</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -6299,7 +6289,7 @@
         <v xml:space="preserve">    99.3510324483776, 98.8790560471976, 98.6135693215339, 98.141592920354, 96.6677047379303, 82.0778726459571, 63.2521907628959,</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -6329,7 +6319,7 @@
         <v xml:space="preserve">    99.6165191740413, 99.6755162241888, 99.646017699115, 99.1740412979351, 98.6725663716814, 83.5233003745707, 59.6979212622947,</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -6359,7 +6349,7 @@
         <v xml:space="preserve">    95.5457227138643, 97.8761061946903, 98.2300884955752, 98.9970501474926, 98.6151264284293, 95.1101653128487, 79.1354596493049,</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -6402,13 +6392,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8F08E0-F1E7-48C1-B3C0-C5EC0902C271}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:I32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6437,7 +6425,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -6463,11 +6451,11 @@
         <v>46.020294293203229</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L31" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
         <v xml:space="preserve">    89.8231818614348, 88.0530973451327, 84.9262536873156, 82.7140373186619, 83.5701865933096, 62.3389475687506, 46.0202942932032,</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -6493,11 +6481,11 @@
         <v>44.605230149049731</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:I3)&amp;","</f>
         <v xml:space="preserve">    94.7197640117994, 94.424778761062, 92.5663716814159, 92.3900725784825, 87.0568949558387, 56.1955553248731, 44.6052301490497,</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -6523,11 +6511,11 @@
         <v>35.769686588984342</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C4:I4)&amp;","</f>
         <v xml:space="preserve">    88.4660766961652, 88.259587020649, 88.4660766961652, 87.6401179941003, 84.6312684365782, 55.8648431214803, 35.7696865889843,</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -6553,11 +6541,11 @@
         <v>43.016116056367267</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C5:I5)&amp;","</f>
         <v xml:space="preserve">    92.4778761061947, 92.094395280236, 92.3895535428507, 89.9705014749263, 80.6735352381941, 53.3636969177934, 43.0161160563673,</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -6583,11 +6571,11 @@
         <v>37.471431413766553</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C6:I6)&amp;","</f>
         <v xml:space="preserve">    95.575221238938, 95.3097345132743, 95.1032448377581, 93.3923303834808, 78.2333757212433, 48.5590705801953, 37.4714314137666,</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -6613,11 +6601,11 @@
         <v>32.998209327070313</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C7:I7)&amp;","</f>
         <v xml:space="preserve">    94.2182890855457, 94.6312684365782, 91.0029498525074, 87.8474727290028, 76.5518732861011, 40.6141921642921, 32.9982093270703,</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -6643,11 +6631,11 @@
         <v>61.248540212285569</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C8:I8)&amp;","</f>
         <v xml:space="preserve">    91.7109144542773, 92.4778761061947, 93.2743362831858, 92.1828908554572, 84.9730534001159, 64.9586069083643, 61.2485402122856,</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -6673,11 +6661,11 @@
         <v>52.37951885396933</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:I9)&amp;","</f>
         <v xml:space="preserve">    96.2536873156342, 96.8436578171091, 96.7256637168142, 96.283185840708, 91.5944774608777, 61.0715490618431, 52.3795188539693,</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -6703,11 +6691,11 @@
         <v>56.366837083365773</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C10:I10)&amp;","</f>
         <v xml:space="preserve">    97.8761061946903, 98.7905604719764, 97.8761061946903, 97.787610619469, 93.6892187648682, 68.6710957707247, 56.3668370833658,</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -6733,11 +6721,11 @@
         <v>46.7959065389839</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C11:I11)&amp;","</f>
         <v xml:space="preserve">    94.5427728613569, 94.7492625368731, 95.2507374631269, 93.8643067846608, 81.5597020735474, 62.819055528162, 46.7959065389839,</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -6763,11 +6751,11 @@
         <v>45.365790361508317</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C12:I12)&amp;","</f>
         <v xml:space="preserve">    91.6814159292035, 90.8263047258194, 89.6755162241888, 89.0560471976401, 84.5432918969887, 53.0564278237701, 45.3657903615083,</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -6793,11 +6781,11 @@
         <v>38.861841365409738</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C13:I13)&amp;","</f>
         <v xml:space="preserve">    95.7522123893805, 94.9557522123894, 94.5136203600377, 92.8078962620784, 90.325002811443, 61.8263133764133, 38.8618413654097,</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -6823,11 +6811,11 @@
         <v>51.84733431950103</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C14:I14)&amp;","</f>
         <v xml:space="preserve">    92.5663716814159, 93.0973451327434, 91.976401179941, 88.8790560471976, 84.5722713864307, 58.4373567245391, 51.847334319501,</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -6853,11 +6841,11 @@
         <v>38.357771260997069</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C15:I15)&amp;","</f>
         <v xml:space="preserve">    90.7966331888684, 92.4485505929982, 90.7673076756719, 90.6519087535359, 83.7834237320392, 49.7869358731477, 38.3577712609971,</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -6883,11 +6871,11 @@
         <v>46.107751797160873</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C16:I16)&amp;","</f>
         <v xml:space="preserve">    93.2743362831858, 93.6283185840708, 92.330383480826, 90.26635178505, 82.4521838424208, 46.6595731796988, 46.1077517971609,</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -6913,11 +6901,11 @@
         <v>45.769773094922968</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C17:I17)&amp;","</f>
         <v xml:space="preserve">    95.6047197640118, 95.9587020648968, 95.5752212389381, 96.6666666666667, 92.094395280236, 59.0526734660334, 45.769773094923,</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -6943,11 +6931,11 @@
         <v>51.065234128322913</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C18:I18)&amp;","</f>
         <v xml:space="preserve">    92.8023598820059, 92.8617029559079, 92.9501985311292, 91.6536475229024, 85.4788536233012, 58.065986729989, 51.0652341283229,</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -6973,11 +6961,11 @@
         <v>50.44870630368775</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C19:I19)&amp;","</f>
         <v xml:space="preserve">    96.4601769911504, 96.3126843657817, 96.7551622418879, 95.2517755343904, 91.4780404674781, 65.7823164560247, 50.4487063036878,</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -7003,11 +6991,11 @@
         <v>46.398930786598498</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C20:I20)&amp;","</f>
         <v xml:space="preserve">    93.5103244837758, 93.3628318584071, 90.73832818623, 88.1069905449009, 84.9142293618457, 59.8343411275184, 46.3989307865985,</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -7033,11 +7021,11 @@
         <v>31.661606069256649</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C21:I21)&amp;","</f>
         <v xml:space="preserve">    90.0886685870985, 89.1152172596649, 88.147475324181, 82.5132570350955, 79.3070874315522, 62.3677540463153, 31.6616060692566,</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -7063,11 +7051,11 @@
         <v>44.425643820448272</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C22:I22)&amp;","</f>
         <v xml:space="preserve">    93.2743362831858, 93.2448377581121, 95.1032448377581, 94.8672566371681, 90.4497443749513, 68.6178081125269, 44.4256438204483,</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -7093,11 +7081,11 @@
         <v>32.410314968122563</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C23:I23)&amp;","</f>
         <v xml:space="preserve">    92.2418879056047, 92.330383480826, 91.5339233038348, 89.7935103244838, 81.594650472755, 46.9940916443914, 32.4103149681226,</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -7123,11 +7111,11 @@
         <v>38.568759245322191</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C24:I24)&amp;","</f>
         <v xml:space="preserve">    94.6017699115044, 93.5399960207268, 93.3628318584071, 94.4542772861357, 86.3515255322278, 53.1214802896219, 38.5687592453222,</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -7153,11 +7141,11 @@
         <v>33.891815673145963</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C25:I25)&amp;","</f>
         <v xml:space="preserve">    95.2212389380531, 93.834808259587, 91.8879056047198, 90.1474926253687, 85.1917404129794, 57.0203894497357, 33.891815673146,</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -7183,11 +7171,11 @@
         <v>50.208392806166152</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C26:I26)&amp;","</f>
         <v xml:space="preserve">    89.5280235988201, 90.0589970501475, 89.9410029498525, 89.4690265486726, 83.3340253808424, 63.1383489476553, 50.2083928061662,</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -7213,11 +7201,11 @@
         <v>49.308904056263472</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C27:I27)&amp;","</f>
         <v xml:space="preserve">    84.6017699115044, 84.188790560472, 85.4867256637168, 84.8967551622419, 83.0973451327434, 58.996963641554, 49.3089040562635,</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -7243,11 +7231,11 @@
         <v>41.49369804237061</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C28:I28)&amp;","</f>
         <v xml:space="preserve">    87.1976401179941, 85.7817109144543, 85.693215339233, 82.6843657817109, 76.633621398109, 63.1824669763579, 41.4936980423706,</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -7273,11 +7261,11 @@
         <v>60.625091912559803</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C29:I29)&amp;","</f>
         <v xml:space="preserve">    99.0855457227139, 99.1445427728614, 98.8495575221239, 98.7610619469027, 96.7256637168142, 77.9598439432867, 60.6250919125598,</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -7303,11 +7291,11 @@
         <v>53.717333194923832</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C30:I30)&amp;","</f>
         <v xml:space="preserve">    99.7345132743363, 99.9115044247788, 99.7935103244838, 99.7345132743363, 99.1740412979351, 77.0426214759643, 53.7173331949238,</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -7333,11 +7321,11 @@
         <v>50.060208133288363</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C31:I31)&amp;","</f>
         <v xml:space="preserve">    94.4542772861357, 94.5427728613569, 95.575221238938, 97.1386430678466, 98.9682436699279, 88.7726537426794, 50.0602081332884,</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -7346,27 +7334,27 @@
         <v>93.271403731866201</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <f t="shared" ref="D32:I32" si="0">AVERAGE(D2:D31)</f>
         <v>93.159332404836249</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>92.607934901397641</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>91.395767552775823</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>86.100098905123176</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60.13909866579008</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45.242222395234094</v>
       </c>
     </row>
@@ -7380,13 +7368,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09111D4-DC2D-4B58-B6E1-9B3D38D5C9B5}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:I32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7415,7 +7401,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -7441,11 +7427,11 @@
         <v>49.461760049827419</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L31" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
         <v xml:space="preserve">    88.8495575221239, 87.5530065138972, 85.9882005899705, 87.5516224188791, 87.1094905665274, 64.5823925812507, 49.4617600498274,</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -7471,11 +7457,11 @@
         <v>50.598102059706399</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:I3)&amp;","</f>
         <v xml:space="preserve">    95.0442477876106, 94.0412979351032, 92.5368731563422, 91.4749262536873, 83.6642185486034, 59.2047509061497, 50.5981020597064,</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -7501,11 +7487,11 @@
         <v>48.891858926115283</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C4:I4)&amp;","</f>
         <v xml:space="preserve">    89.2625368731563, 88.8200589970502, 88.8200589970502, 86.5191740412979, 81.4752722774418, 59.1872767065459, 48.8918589261153,</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -7531,11 +7517,11 @@
         <v>50.416958624209563</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C5:I5)&amp;","</f>
         <v xml:space="preserve">    92.9498525073746, 91.976401179941, 94.1592920353982, 89.4690265486726, 84.5151774669331, 63.0867914082302, 50.4169586242096,</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -7561,11 +7547,11 @@
         <v>35.415358264344853</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C6:I6)&amp;","</f>
         <v xml:space="preserve">    95.5457227138643, 94.8672566371681, 91.0029498525074, 92.8613569321534, 78.6534485592436, 47.9382174586285, 35.4153582643449,</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -7591,11 +7577,11 @@
         <v>39.251031583318188</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C7:I7)&amp;","</f>
         <v xml:space="preserve">    95.3687315634218, 94.9852507374631, 91.7110874661546, 86.283185840708, 79.264266991929, 43.5321239803112, 39.2510315833182,</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -7621,11 +7607,11 @@
         <v>60.989627937957927</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C8:I8)&amp;","</f>
         <v xml:space="preserve">    92.5368731563422, 92.1828908554572, 92.2418879056047, 91.4749262536873, 86.696511215495, 67.170823277018, 60.9896279379579,</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -7651,11 +7637,11 @@
         <v>51.856157925241561</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:I9)&amp;","</f>
         <v xml:space="preserve">    97.4631268436578, 97.8171091445428, 97.2861356932153, 94.7787610619469, 92.6393826936219, 76.4566302476665, 51.8561579252416,</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -7681,11 +7667,11 @@
         <v>58.077059490133998</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C10:I10)&amp;","</f>
         <v xml:space="preserve">    98.4070796460177, 98.2300884955752, 97.4631268436578, 96.4306784660767, 91.3866036903433, 75.8664867343143, 58.077059490134,</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -7711,11 +7697,11 @@
         <v>46.17834064308515</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C11:I11)&amp;","</f>
         <v xml:space="preserve">    96.0766961651917, 96.283185840708, 94.070796460177, 89.5280235988201, 82.1316793397867, 59.4636631804773, 46.1783406430851,</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -7741,11 +7727,11 @@
         <v>48.672739383558678</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C12:I12)&amp;","</f>
         <v xml:space="preserve">    90.9734513274336, 90.4424778761062, 89.1152172596649, 86.5781710914454, 83.6874886460955, 62.5783960068859, 48.6727393835587,</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -7771,11 +7757,11 @@
         <v>54.161541189802684</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C13:I13)&amp;","</f>
         <v xml:space="preserve">    95.4277286135693, 94.2477876106195, 94.7197640117994, 90.2949852507375, 85.7284232562565, 62.4428412010485, 54.1615411898027,</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -7801,11 +7787,11 @@
         <v>59.215218124724267</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C14:I14)&amp;","</f>
         <v xml:space="preserve">    92.3598820058997, 92.9498525073746, 87.3451327433628, 84.8967551622419, 82.5368731563422, 67.1830206143652, 59.2152181247243,</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -7831,11 +7817,11 @@
         <v>48.590299224041729</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C15:I15)&amp;","</f>
         <v xml:space="preserve">    93.5399960207268, 93.4516734573828, 93.4232130035727, 89.9130615316741, 79.3838181991194, 58.3913355651865, 48.5902992240417,</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -7861,11 +7847,11 @@
         <v>42.899679062967678</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C16:I16)&amp;","</f>
         <v xml:space="preserve">    92.8320314189569, 89.9115044247788, 88.2300884955752, 76.9663232380903, 73.5194941132709, 47.8094966219431, 42.8996790629677,</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -7891,11 +7877,11 @@
         <v>45.57401015579719</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C17:I17)&amp;","</f>
         <v xml:space="preserve">    95.4867256637168, 96.283185840708, 95.2802359882006, 91.8879056047198, 84.5797108971531, 62.9664616475921, 45.5740101557972,</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -7921,11 +7907,11 @@
         <v>56.806719781312992</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C18:I18)&amp;","</f>
         <v xml:space="preserve">    94.6902654867257, 93.4513274336283, 93.7768492807031, 85.6675230754591, 76.0261766970303, 61.1284699694634, 56.806719781313,</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -7951,11 +7937,11 @@
         <v>55.270893346828259</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C19:I19)&amp;","</f>
         <v xml:space="preserve">    97.2861356932153, 95.9587020648968, 94.8082595870206, 90.9439528023599, 82.3732039204491, 68.1088936755508, 55.2708933468283,</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -7981,11 +7967,11 @@
         <v>50.432962222856602</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C20:I20)&amp;","</f>
         <v xml:space="preserve">    95.7522123893805, 94.4547963217675, 95.7227138643068, 92.567755776434, 91.7157587868407, 57.7666761823199, 50.4329622228566,</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -8011,11 +7997,11 @@
         <v>37.370046453689049</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C21:I21)&amp;","</f>
         <v xml:space="preserve">    89.7057067967716, 73.1937992543188, 83.9631830725179, 82.2774418463828, 79.4512928312529, 64.2027180165918, 37.370046453689,</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -8041,11 +8027,11 @@
         <v>51.366101782887391</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C22:I22)&amp;","</f>
         <v xml:space="preserve">    94.2772861356932, 93.3040078201368, 93.6283185840708, 87.1770517045995, 91.3629875690966, 80.4706788121004, 51.3661017828874,</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -8071,11 +8057,11 @@
         <v>36.140364536025388</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C23:I23)&amp;","</f>
         <v xml:space="preserve">    92.212389380531, 92.212389380531, 87.9941002949853, 85.0442477876106, 75.8529918078876, 42.0692220520939, 36.1403645360254,</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -8101,11 +8087,11 @@
         <v>39.765741918182677</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C24:I24)&amp;","</f>
         <v xml:space="preserve">    94.2182890855457, 93.8938053097345, 91.4159292035398, 90.6784660766962, 84.8089516345297, 52.2337563473732, 39.7657419181827,</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -8131,11 +8117,11 @@
         <v>42.311784704019928</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C25:I25)&amp;","</f>
         <v xml:space="preserve">    93.598820058997, 92.5663716814159, 91.9174041297935, 89.4985250737463, 84.7787610619469, 60.7930864453845, 42.3117847040199,</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -8161,11 +8147,11 @@
         <v>61.721727696606379</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C26:I26)&amp;","</f>
         <v xml:space="preserve">    90.5604719764012, 91.622418879056, 90.3834808259587, 87.8171091445428, 87.1976401179941, 75.8047214941306, 61.7217276966064,</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -8191,11 +8177,11 @@
         <v>55.585861469389883</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C27:I27)&amp;","</f>
         <v xml:space="preserve">    84.306784660767, 84.5132743362832, 84.5132743362832, 83.2448377581121, 80.8271697852058, 68.8656476267096, 55.5858614693899,</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -8221,11 +8207,11 @@
         <v>43.007465462504001</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C28:I28)&amp;","</f>
         <v xml:space="preserve">    85.4867256637168, 86.1061946902655, 84.8377581120944, 81.7994100294985, 71.6480246368913, 60.5236204465437, 43.007465462504,</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -8251,11 +8237,11 @@
         <v>63.690343342070427</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C29:I29)&amp;","</f>
         <v xml:space="preserve">    99.1740412979351, 98.7315634218289, 98.3480825958702, 98.023598820059, 97.669616519174, 83.8401716277823, 63.6903433420704,</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -8281,11 +8267,11 @@
         <v>56.710611683492083</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C30:I30)&amp;","</f>
         <v xml:space="preserve">    99.6755162241888, 99.4690265486726, 99.3215339233038, 99.3510324483776, 98.3480825958702, 85.4068806823588, 56.7106116834921,</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -8311,11 +8297,11 @@
         <v>79.461846555766058</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C31:I31)&amp;","</f>
         <v xml:space="preserve">    95.3687315634218, 96.9911504424779, 97.9941002949853, 98.2890855457227, 99.2630559087881, 95.0522063339648, 79.4618465557661,</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -8324,27 +8310,27 @@
         <v>93.614587208078504</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <f t="shared" ref="D32:I32" si="0">AVERAGE(D2:D31)</f>
         <v>92.683728521296331</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>92.067301620256245</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>89.309630706147985</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>84.609852449703993</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64.47091526166605</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50.663073786682112</v>
       </c>
     </row>
